--- a/createDatabase/All_Curation.xlsx
+++ b/createDatabase/All_Curation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snorl\Documents\Project\Django\createDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58543AD7-085F-4C2D-8BDF-89BB46D867C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7A5ECA-1CB7-4F29-8326-FB316D1DF3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{1CBAB564-CBD3-814B-99F9-F6F557618218}"/>
+    <workbookView xWindow="43080" yWindow="5910" windowWidth="29040" windowHeight="15720" xr2:uid="{1CBAB564-CBD3-814B-99F9-F6F557618218}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14520" uniqueCount="2859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14526" uniqueCount="2859">
   <si>
     <t>Enhancer No.</t>
   </si>
@@ -9230,8 +9230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715C1BEF-F5A0-4A9D-8A7B-75C6A70E4B88}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="103" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10218,9 +10218,15 @@
       <c r="G12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="H12" s="14">
+        <v>17</v>
+      </c>
+      <c r="I12" s="14">
+        <v>48997385</v>
+      </c>
+      <c r="J12" s="14">
+        <v>49056145</v>
+      </c>
       <c r="K12" s="14" t="s">
         <v>2141</v>
       </c>
@@ -10884,9 +10890,15 @@
       <c r="G20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="H20" s="14">
+        <v>7</v>
+      </c>
+      <c r="I20" s="14">
+        <v>95608432</v>
+      </c>
+      <c r="J20" s="14">
+        <v>95609655</v>
+      </c>
       <c r="K20" s="14" t="s">
         <v>2090</v>
       </c>
@@ -10962,9 +10974,15 @@
       <c r="G21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="H21" s="14">
+        <v>4</v>
+      </c>
+      <c r="I21" s="14">
+        <v>73725619</v>
+      </c>
+      <c r="J21" s="14">
+        <v>73726851</v>
+      </c>
       <c r="K21" s="14" t="s">
         <v>2088</v>
       </c>
@@ -13357,7 +13375,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:29" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -13443,7 +13461,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -13628,8 +13646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6CEA11-5A1D-4DC3-8858-8E758B3F215C}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14978,9 +14996,15 @@
       <c r="G16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>2400</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>2671</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>2672</v>
+      </c>
       <c r="K16" s="14" t="s">
         <v>2206</v>
       </c>
@@ -15058,9 +15082,15 @@
       <c r="G17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>2400</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>2671</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>2672</v>
+      </c>
       <c r="K17" s="14" t="s">
         <v>2206</v>
       </c>
@@ -21569,7 +21599,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="63" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:28" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -21655,7 +21685,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="63" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:28" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -25301,7 +25331,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:28" ht="63" x14ac:dyDescent="0.5">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -32250,7 +32280,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="63" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:29" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -32335,7 +32365,7 @@
       </c>
       <c r="AC146" s="5"/>
     </row>
-    <row r="147" spans="1:29" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:29" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -33448,7 +33478,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="157.5" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:29" ht="173.25" x14ac:dyDescent="0.5">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -34788,7 +34818,7 @@
       </c>
       <c r="AC7" s="10"/>
     </row>
-    <row r="8" spans="1:29" ht="126" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:29" ht="141.75" x14ac:dyDescent="0.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>

--- a/createDatabase/All_Curation.xlsx
+++ b/createDatabase/All_Curation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snorl\Documents\Project\Django\createDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7A5ECA-1CB7-4F29-8326-FB316D1DF3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B1D942-27EC-4DC4-BFA1-530903E171D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="5910" windowWidth="29040" windowHeight="15720" xr2:uid="{1CBAB564-CBD3-814B-99F9-F6F557618218}"/>
+    <workbookView xWindow="57495" yWindow="6030" windowWidth="14610" windowHeight="15585" firstSheet="8" activeTab="10" xr2:uid="{1CBAB564-CBD3-814B-99F9-F6F557618218}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="11" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <sheet name="2013" sheetId="4" r:id="rId8"/>
     <sheet name="2012" sheetId="6" r:id="rId9"/>
     <sheet name="2009" sheetId="5" r:id="rId10"/>
+    <sheet name="2008" sheetId="15" r:id="rId11"/>
+    <sheet name="2007" sheetId="16" r:id="rId12"/>
+    <sheet name="2006" sheetId="17" r:id="rId13"/>
+    <sheet name="2005" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14526" uniqueCount="2859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16197" uniqueCount="3240">
   <si>
     <t>Enhancer No.</t>
   </si>
@@ -8738,6 +8742,1182 @@
   <si>
     <t>Enhancer 3
 (rs10759944, G Allele); (rs10759944, A Allele)</t>
+  </si>
+  <si>
+    <t>CD69 CNS2</t>
+  </si>
+  <si>
+    <t>CD69</t>
+  </si>
+  <si>
+    <t>Luciferase reporter assay</t>
+  </si>
+  <si>
+    <t>The correlation between DNA conservation and the presence of HSs and positive histone marks at the promoter and CNS1– 4 prompted us to test their regulatory properties. We prepared luciferase reporter constructs under the control of the CD69 promoter linked to CNS fragments (Fig. 4A). Plasmids were transiently transfected into Jurkat cells, cultured for 24 h, and then stimulated or not with PMA/Io for 24 h more before cells extracts were harvested for luciferase activity. Stimulation conferred a 4-fold increase in the activity of the CD69 promoter. Inducible activity of the CD69 promoter, however, was greatly enhanced in the presence of CNS2. This fragment conferred a 2-fold increase in basal activity and 20-fold increase over basal activity under conditions of stimulation. CNS4 conferred an _x0005_5-fold increase in basal transcription activity and a further 2-fold increase under conditions of stimulation. In contrast, reporter activity was not altered when CNS1 or CNS3 was linked to the CD69 promoter. Luciferase activity of these constructs was also determined upon stimulation with immobilized Abs against CD3 and CD28 (supplemental Fig. 1). CNS2 was found to confer inducibility to this stimulus, although the magnitude (3-fold) was lower than with PMA/Io. These results provide initial evidence that CNS2 and CNS4 may be enhancer elements for CD69 gene transcription.</t>
+  </si>
+  <si>
+    <t>CD69 Gene Is Differentially Regulated in T and B Cells by Evolutionarily Conserved Promoter-Distal Elements</t>
+  </si>
+  <si>
+    <t>Vazquez, Berta N.</t>
+  </si>
+  <si>
+    <t>183: 6513-6521</t>
+  </si>
+  <si>
+    <t>10.4049/jimmunol.0900839</t>
+  </si>
+  <si>
+    <t>yeexuan</t>
+  </si>
+  <si>
+    <t>CD69 CNS4</t>
+  </si>
+  <si>
+    <t>SOX 8 E1</t>
+  </si>
+  <si>
+    <t>SOX 8</t>
+  </si>
+  <si>
+    <t>Cranial ganglia</t>
+  </si>
+  <si>
+    <t>To compare the activity of the E1, E3 and E4 enhancers with Sox8 expression, we made use of the previously generated Sox8lacZ targeted knock-in allele in which -galactosidase is under the control of endogenous Sox8 regulatory regions and faithfully mimics Sox8 expression (Sock et al., 2001). We restricted our analysis to the phase between 10.5 and 12.5 dpc as the phase with the broadest and most dynamic Sox8 expression pattern. Whole mount X-gal staining at these developmental ages showed that elements E1, E3 and E4 each recapitulated select aspects of the Sox8 expression pattern (Fig. 2A and E). The E1 transgene exhibited strong -galactosidase activity at 10.5 dpc in cranial ganglia, part of the otic vesicle, but also in dorsal root ganglia (DRG), peripheral nerves and the spinal cord (Fig. 2B). At least at this level of resolution, these sites closely corresponded to sites of endogenous Sox8 expression (Fig. 2A) as also confirmed on vibratome sections of the stained embryo (compare Fig. 3A, E, I to B, F, J). Sections also revealed that expression of the E1 transgene in the spinal cord was largely restricted to a stripe in the ventral region (Figs. 3B, F and J and 4B). Endogenous Sox8 is expressed in roughly the same region, but at comparatively low levels (Figs. 3A, E and I and 4A). The same also applied for the hindbrain expression which was very prominent for the E1 transgene and much less pronounced for Sox8 (Fig. 2A and B). At 12.5 dpc, expression of the E1 transgene was almost exclusively restricted to and very strong in the central nervous system (CNS) (Fig. 2F), whereas Sox8 expression was much more prominent in the peripheral nervous system (PNS) and various mesodermal derivatives of the trunk region (Fig. 2E). At 12.5 dpc, one of the few remaining sites with common expression of Sox8 and the E1 transgene were the eyes including retina and posterior part of the lens and various eye musles (Fig. 4I and J). In contrast to the strong resemblance at 10.5 dpc, there is thus a striking divergence between the expression patterns of Sox8 and the E1 transgene at 12.5 dpc. The E3 transgene also exhibited expression in cranial ganglia, otic vesicle, DRG and peripheral nerves at 10.5 dpc (Fig. 2C). Compared to E1, however, DRG expression was significantly stronger, whereas cranial ganglia exhibited a less intense staining with exception of the trigeminal ganglion (compare Fig. 2BtoFig. 2C, Fig. 3B, F and J to Fig. 3C, G and K and Fig. 4BtoFig. 4C). Quite interestingly, expression in DRG and along peripheral nerves persisted in E3 transgenic embryos at 12.5 dpc, whereas it had disappeared from these structures in age-matched E1 transgenic embryos (Fig. 2F and G). Intriguingly, the E3 transgene was additionally expressed in other neural crest derivatives that also exhibit Sox8 expression. As particularly evident at 10.5 dpc, these include the facial mesenchyme (Fig. 2A and C), the first branchial arch (Figs. 2A and C and 3E and G), sympathetic ganglia (Figs. 3I and K and 4E and G) and streams of neural crest cells that migrated towards the heart and along the gut and thus likely represent cardiac and enteric neural crest cells (Figs. 2A and C, 3I and K and 4E and G). CNS expression of the E3 transgene was observed in the ventral region of the spinal cord and the hindbrain similar to the E1 transgene (Figs. 2C and 3C, G and K). The domain within the ventral spinal cord in which the E3 transgene was expressed appeared to be narrower than the E1 expression domain (Fig. 4B and C) and corresponded exactly to the domain of Sox8 expression (Fig. 4A). It was furthermore identical to the region in which the Sox8 promoter drove transgene expression (data not shown). Additional -galactosidase activity was detected in E3 transgenic embryos at 10.5 dpc in a stripe that marked the boundary between mid- and forebrain (Fig. 2C). This is also characteristic forSox8(Fig. 2A). Expression of -galactosidase had largely disappeared from the brains of E3 transgenic embryos at 12.5 dpc, but continued to be strong throughout the PNS as similarly observed for Sox8 (compare Figs. 2E, G and 5A, B, D and E). At 12.5 dpc, there was additional significant overlap between expression of Sox8 and the E3 transgene in lens, retina and eye muscles (Fig. 4I and K). Most other muscles throughout the body, however, showed strong -galactosidase staining only in Sox8lacZ/+ but not in E3 transgenic embryos (Fig. 5A, B, D and E), arguing that E3 reproduced the ectodermal aspects of the Sox8 expression pattern much better than the mesodermal ones. In contrast to embryos carrying the E1 or E3 transgene, there was no -galactosidase expression in the PNS of E4 transgenic embryos, either at 10.5 dpc (Figs. 2D, 3D, H and L and 4D) or at 12.5 dpc (Figs. 2H and 5C). CNS expression of the E4 transgene was also very weak and largely restricted to spinal cord regions both at 10.5 and 12.5 dpc (Figs. 2D and H, 4D and 5C). Closer inspection of the exact region that exhibited expression of the E4 transgene within the spinal cord at 10.5 dpc revealed that it corresponded to the Sox8 expression domain and is thus specific (Figs. 3D, H and L and 4D). The major expression site of the E4 transgene at 10.5 dpc, however, was the developing limb bud (Figs. 2D and 3L). At this age, expression of Sox8 and the E4 transgene were both uniformly present throughout the limb bud mesenchyme (Fig. 3I and L). At 12.5 dpc, Sox8 expression was no longer uniform but marked the developing muscles, chondrogenic condensations and the interdigital regions of fore- and hindlimbs (Figs. 2E and 5A and D). Expression of the E4 transgene also became regionally restricted, but now only reflected part of the Sox8-specific pattern with some of the limb muscles and the interdigital regions stained, but chondrogenic condensations lacking -galactosidase activity (Figs. 2H and 5C and F). Other regions where expression of Sox8 and E4 transgene significantly overlapped were lens and retina of the developing eye (Fig. 4I and L).</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>Evolutionary conserved sequence elements with embryonic enhancer activity in the vicinity of the mammalian Sox8 gene</t>
+  </si>
+  <si>
+    <t>Guth, Sabine I.E.</t>
+  </si>
+  <si>
+    <t>The International Journal of Biochemistry &amp; Cell Biology</t>
+  </si>
+  <si>
+    <t>42:465-471</t>
+  </si>
+  <si>
+    <t>10.1016/j.biocel.2009.07.008</t>
+  </si>
+  <si>
+    <t>Dorsal root ganglia</t>
+  </si>
+  <si>
+    <t>Peripheral nerves</t>
+  </si>
+  <si>
+    <t>Spinal cord</t>
+  </si>
+  <si>
+    <t>SOX 8 E3</t>
+  </si>
+  <si>
+    <t>SOX 8 E4</t>
+  </si>
+  <si>
+    <t>Limb bud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADIPOQ enhancer </t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>ADIPOQ</t>
+  </si>
+  <si>
+    <t>Adipose tissue</t>
+  </si>
+  <si>
+    <t>Adipocyte</t>
+  </si>
+  <si>
+    <t>to identify the cis-elements responsible for the transactivation in mature adipocytes, the 50 flanking region of adiponectin gene was analyzed with the UCSC Genome Browser. The UCSC Genome Browser identified five evolutionally conserved regions within the K2664 bp upstream from the transcription start site of the human adiponectin gene (Fig. 1C). Two conserved elements are located between K2614 bp and K2517 bp (Element1 (E1): K2614/K2591 and Element2 (E2): K2524/K2517), and three conserved elements are in the proximal region of human adiponectin promoter (Element3 (E3): K177/K158, Element4 (E4): K105/K92, and Element5 (E5): K55/K43). To investigate the impact of these two distal conserved elements on the transactivation of human adiponectin promoter, luciferase activities driven by truncated constructs of human adiponectin promoter were measured in 3T3-L1 mature adipocytes. a2664Luc, including E1 and E2, exhibited high luciferase activity; however, the reporter construct deleted E1 (a2561Luc) showed apparently low luciferase activity similar to that driven by the proximal promoter construct with both deleted E1 and E2 (a563; Fig. 1D). This deletion suggested the significance of E1 for the transcriptional activation of human adiponectin promoter in 3T3-L1 mature adipocytes. To define the distal enhancer of the human adiponectin gene, reporter constructs of various truncated distal enhancers with proximal promoter were transfected into 3T3-L1 mature adipocytes. Although connection with the distal enhancer, including both E1 and E2 (a563CUnit1), potently increased the transcriptional activity of a563Luc, slight enhancement was observed by the distal enhancer deleted E1 or E2 (a563CUnit2 or a563C Unit3). Taken together, these results suggest that the distal enhancer of human adiponectin gene is composed of highly conserved E1 and E2, and that both are essential for transactivation in mature adipocytes.</t>
+  </si>
+  <si>
+    <t>Identification of a novel distal enhancer in human adiponectin gene</t>
+  </si>
+  <si>
+    <t>Segawa, Katsumori</t>
+  </si>
+  <si>
+    <t>Journal of Endocrinology</t>
+  </si>
+  <si>
+    <t>200: 107-116</t>
+  </si>
+  <si>
+    <t>10.1677/JOE-08-0376</t>
+  </si>
+  <si>
+    <t>IL10 CNS9</t>
+  </si>
+  <si>
+    <t>IL 10 ( interleukin 10)</t>
+  </si>
+  <si>
+    <t>T cell helper type 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">To identify important cis-acting regulatory elements in the IL-10 locus, we used the web-based global alignment tool VISTA (Mayor et al., 2000) to analyze approximately 20 kb of the IL-10 locus of the mouse aligned with the sequence of human. We identified six CNSs (conserved non-coding sequences), defined as having 75% or greater identity over at least 100 bp stretches upstream and downstream of the IL-10 locus (Fig. 1A). To investigate if any of the CNSs could enhance IL-10 gene expression, we made luciferase reporter constructs and examined their effects in EL4 T cells. We used the pXPG luciferase vector (Bert et al., 2000) containing 79 bp of the IL-10 minimal promoter (Brightbill et al., 2000), which serves as a basal cis-acting element for IL-10 transcription (Supplementary Fig. 1A). Into this basic construct, we cloned each CNS fragments which were shown in Fig. 1A to the upstream region of the minimal promoter. The reporter activity of CNS-9 was more than 55-fold higher than the basal level and was highly responsive to PMA and ionomycin stimulation, giving a 170-fold greater increase than the control vector (Fig. 1B). The other CNS reporter constructs had only marginal effects on transcriptional activity. These results lead us to assume that uncharacterized CNSs could have important regulatory roles in IL-10 expression in CD4+ T cells. To check whether the enhancer activity is independent of its orientation, we cloned CNS-9 region in the reverse direction and performed transient reporter assay in EL4 T cells. We found similar trans-activity of reversed CNS-9 construct to the CNS-9 in right orientation (Fig. 1C). Unlike other conventional enhancer elements, CNSs of IL-10 locus showed basic promoter activity without promoter (Jones and Flavell, 2005). So, we first analyzed basic promoter activity of CNS-9 in a promoterless vector (Supplementary Fig. 1B). Indeed, CNS-9 does have promoter activity itself but trans-activity of this fragment was much less (12–30-fold) than CNS-9 with minimal promoter (60–180-fold) (Fig. 1B). PMA and ionomycin are both required for full activation of CNS-9 enhancer activity (Supplementary Fig. 2A) and IL-10 expression by Th2 cells as well (Supplementary Fig. 2B). CNS-9 reporter activity showed little enhancement when stimulated with either PMA or ionomycin alone compared with PMA/ionomycin treatment (Supplementary Fig. 2A). This result is also correlated with IL-10 mRNA expression by Th2 cells (Supplementary Fig. 2B). These results suggest that CNS-9 has an enhancer activity in IL-10 gene regulation. So, we further investigate to elucidate the role and mechanism of action of CNS-9 in IL-10 gene expression. The CNS-9 region is a DNase I-HSS in both Th1 and Th2 cells (Jones and Flavell, 2005), suggesting that it may regulate the expression of IL-10 in both T helper cell lineages. To test whether CNS-9 possessed different enhancer activity in Th1 and Th2 cells, we transiently transfected a CNS-9 reporter construct into each subset of primary Th cells and performed reporter assay. Although the CNS-9 region showed common HSS in Th1 and Th2 cells, strong enhancer activity of CNS-9 detected only in Th2 cells with stimulation dependent trans-activity (Fig. 1D). To exclude the effect of lineage preference of minimal IL-10 promoter, we also confirmed the trans-activity of minimal promoter in Th1 and Th2 cells. Minimal promoter (mpro) itself shows marginal trans-activity in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Th1 and Th2 cells without lineage-specific activity (Fig. 1D). Th2 preferential trans-activity of CNS-9 is well matched with the Th2 preferential upregulation of IL-10 expression (Fig. 1E).</t>
+    </r>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>A distal cis-regulatory element, CNS-9, controls NFAT1 and IRF4-mediated IL-10 gene activation in T helper cells</t>
+  </si>
+  <si>
+    <t>Choong-Gu, Lee</t>
+  </si>
+  <si>
+    <t>46: 613-621</t>
+  </si>
+  <si>
+    <t>10.1016/j.molimm.2008.07.037</t>
+  </si>
+  <si>
+    <t>AgRP Diiia</t>
+  </si>
+  <si>
+    <t>67513774</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>AgRP</t>
+  </si>
+  <si>
+    <t>Testicular cell</t>
+  </si>
+  <si>
+    <t>To examine further the properties of the two candidate enhancers (Diiia and Diiib), luciferaseexpressing transgenic mice were made. Schematics of the transgenes used are shown in Fig. 3. Essentially, Diiia and Diiib constructs were digested out of the pGL3-basic vector using the Nhe I and Sal I restriction endonucleases to release the linear inserts. The transgene for Diiib is shown in Fig. 3 in its reverse orientation (3′ to 5′) for the sake of showing the overlap (18 nt) between the two intronic enhancers. Following pronuclear injections, three founders per enhancer (transgene) were generated. For enhancer Diiia, only one founder was able to successfully breed and pass the transgene (Fig. 3). For enhancer Diiia, two founders bred successfully and passed the transgene (Fig. 3). Examples of offspring are shown in Fig. 3: two mice from the single founder for Diiib (lefthand-side), and one mouse per founder for Diiib (right-hand-side). Essentially, enhancer Diiia drove expression in the testis, ears, and tail, while enhancer Diiib drove expression more ubiquitously with greater concentration in the testis and the abdominal area, the front limps, and the facial region. Offspring of founder A displayed significantly more intense expression of luciferase than offspring of Founder B.</t>
+  </si>
+  <si>
+    <t>Control Elements in the Neighboring ATPase Gene Influence Spatiotemporal Expression of the Human Agouti-Related Protein</t>
+  </si>
+  <si>
+    <t>Ilnytska,Olha</t>
+  </si>
+  <si>
+    <t>388:239-251</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmb.2009.03.017</t>
+  </si>
+  <si>
+    <t>AgRP Diiib</t>
+  </si>
+  <si>
+    <t>GATA4 G8</t>
+  </si>
+  <si>
+    <t>11486303</t>
+  </si>
+  <si>
+    <t>11486520</t>
+  </si>
+  <si>
+    <t>Endoderm</t>
+  </si>
+  <si>
+    <t>Gastric epithelium</t>
+  </si>
+  <si>
+    <t>To test this notion, we cloned each of these regions into the transgenic reporter plasmid Hsp68-lacZ (Kothary et al., 1989) and tested for enhancer activity in transgenic mouse embryos. These studies identified several unique and highly specific transcriptional enhancers, including a previously described lateral mesoderm enhancer regulated by Forkhead and GATA transcription factors (Rojas et al., 2005). We also identified a unique endoderm enhancer from the mouse Gata4 locus, which we refer to as Gata4 G8. The Gata4 G8 genomic fragment spans 3,541 bp and is located approximately 80 kb upstream of the Gata4 transcriptional start site (Fig. 1). At E9.5, Gata4 G8 directed lacZ expression to the ventral and dorsal foregut, midgut (Fig. 2A–C, E), and yolk sac (data not shown). b-galactosidase expression was also observed in the foregut-derived ventral pancreatic bud entering the septum transversum just below the developing heart (Fig. 2B, arrowhead). The expression of endogenous GATA4 protein expression completely overlapped the expression of the Gata4-G8-lacZ transgene in the foregut and midgut at E9.5, although the expression of endogenous GATA4 was broader than transgene expression (Fig. 2, compare panels C, E to panels D, F). The broader expression of endogenous GATA4 likely reflects control of the Gata4 gene by additional modular transcriptional enhancers, which control expression in distinct subsets of the developing gut mesoderm and endoderm. By E11.5, the broad pattern of Gata4 G8 enhancer activity became restricted to the epithelium of the stomach and the nascent pancreatic epithelium (Fig. 2G, I). The epithelia of the hind stomach and the pancreas are marked by the expression of PDX-1 at E11.5 (Ashizawa et al., 2004), and b-galactosidase expression directed by Gata4 G8 overlapped PDX-1-positive cells almost perfectly at that stage (Fig. 2I, J). Importantly, no Gata4-G8-lacZ transgene expression was observed in the mesenchyme of these developing organs, suggesting that the activity of the enhancer is endoderm-specific. By E13.5, expression directed by the Gata4 G8 endoderm-specific enhancer appeared only in the glandular (hind) stomach and was absent in the anterior portion of the stomach, (Fig. 2K), which corresponded almost precisely to endogenous GATA4 protein expression in the stomach (Fig. 2L). At this stage, Gata4 G8-directed b-galactosidase expression was also very robust in the branching epithelial tree of the dorsal and ventral pancreases (Fig. 2H, M), and comparison of immediately adjacent sections stained for expression of endogenous GATA4 and PDX-1 proteins showed that the pattern of b-galactosidase expression overlapped with endogenous GATA4 almost perfectly (Fig. 2N). b-galactosidase expression also overlapped the expression PDX-1 protein (Fig. 2O), which is important since PDX-1 is a marker of endoderm-derived pancreatic epithelium at this stage (Ashizawa et al., 2004).</t>
+  </si>
+  <si>
+    <t>An endoderm‐specific transcriptional enhancer from the mouse &lt;i&gt;Gata4&lt;/i&gt; gene requires GATA and homeodomain protein–binding sites for function in vivo</t>
+  </si>
+  <si>
+    <t>Rojas, Anabel</t>
+  </si>
+  <si>
+    <t>Developmental Dynamics</t>
+  </si>
+  <si>
+    <t>238: 2588-2598</t>
+  </si>
+  <si>
+    <t>10.1002/dvdy.22091</t>
+  </si>
+  <si>
+    <t>Duodenal Crypts</t>
+  </si>
+  <si>
+    <t>Pancreatic Acinar</t>
+  </si>
+  <si>
+    <t>According to the paper, position of enhancer only available upon request.</t>
+  </si>
+  <si>
+    <t>10.1210/me.2007-0380</t>
+  </si>
+  <si>
+    <t>22:1044-1056</t>
+  </si>
+  <si>
+    <t>Nerenz, Robert D.</t>
+  </si>
+  <si>
+    <t>An Enhancer 20 Kilobases Upstream of the Human Receptor Activator of Nuclear Factor-κB Ligand Gene Mediates Dominant Activation by 1,25-Dihydroxyvitamin D3</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>The similarity in functional activity between the mouse and human RLD5 regions (24) together with the high degree of conservation noted at mouse RLD1–RLD4 prompted us to examine these other segments of DNA from the human gene for their capacity to mediate transcriptional activation by 1,25-(OH)2D3. We therefore amplified DNA fragments that corresponded to human RLD1–RLD4, cloned them into a thymidine kinase (TK) promoter-luciferase reporter plasmid, and assessed their transcriptional activity in response to 1,25-(OH)2D3 after introduction into human osteoblastic MG63 cells. The positions and individual characteristics of these fragments are documented in Fig. 2, A and B. Figure 2C depicts the results of this experiment, which demonstrate that whereas hRLD5a was capable of mediating a modest response to 1,25(OH)2D3 (see inset), as observed in our earlier studies, hRLD2 (see inset) and especially hRLD1 were strikingly sensitive to 1,25-(OH)2D3. Thus, a 2- to 5-fold induction was observed when the hRLD2 or hRLD5 regions were examined, and an over 20-fold induction was obtained when hRLD1 was present. Neither hRLD3 nor hRLD4 were able to confer any degree of sensitivity to 1,25-(OH)2D3, an observation consistent with that seen in the mouse RLD3 and RLD4 enhancer regions. These findings demonstrate that the five conserved regions in the human gene that correspond to mouse RLD1–RLD5 display both similarities as well as differences in their ability to mediate a transcriptional response to 1,25-(OH)2D3 in MG63 cells. They also suggest the possibility that the regulatory region at RLD1 in the human gene may play a dominant role in human RANKL gene regulation.</t>
+  </si>
+  <si>
+    <t>Osteoblast</t>
+  </si>
+  <si>
+    <t>RANKL</t>
+  </si>
+  <si>
+    <t>RLD1</t>
+  </si>
+  <si>
+    <t>46:613-621</t>
+  </si>
+  <si>
+    <t>Lee, Choong-Gu</t>
+  </si>
+  <si>
+    <t>To investigate if any of the CNSs could enhance IL-10 gene expression, we made luciferase reporter constructs and examined their effects in EL4 T cells. We used the pXPG luciferase vector (Bert et al., 2000) containing 79 bp of the IL-10 minimal promoter (Brightbill et al., 2000), which serves as a basal cis-acting element for IL-10 transcription (Supplementary Fig. 1A). Into this basic construct, we cloned each CNS fragments which were shown in Fig. 1A to the upstream region of the minimal promoter. The reporter activity of CNS-9 was more than 55-fold higher than the basal level and was highly responsive to PMA and ionomycin stimulation, giving a 170-fold greater increase than the control vector (Fig. 1B). The other CNS reporter constructs had only marginal effects on transcriptional activity. These results lead us to assume that uncharacterized CNSs could have important regulatory roles in IL-10 expression in CD4+ T cells. To check whether the enhancer activity is independent of its orientation, we cloned CNS-9 region in the reverse direction and performed transient reporter assay in EL4 T cells. We found similar trans-activity of reversed CNS-9 construct to the CNS-9 in right orientation (Fig. 1C). Unlike other conventional enhancer elements, CNSs of IL-10 locus showed basic promoter activity without promoter (Jones and Flavell, 2005). So, we first analyzed basic promoter activity of CNS-9 in a promoterless vector (Supplementary Fig. 1B). Indeed, CNS-9 does have promoter activity itself but trans-activity of this fragment was much less (12–30-fold) than CNS-9 with minimal promoter (60–180-fold) (Fig. 1B). PMA and ionomycin are both required for full activation of CNS-9 enhancer activity (Supplementary Fig. 2A) and IL-10 expression by Th2 cells as well (Supplementary Fig. 2B). CNS-9 reporter activity showed little enhancement when stimulated with either PMA or ionomycin alone compared with PMA/ionomycin treatment (Supplementary Fig. 2A). This result is also correlated with IL-10 mRNA expression by Th2 cells (Supplementary Fig. 2B). These results suggest that CNS-9 has an enhancer activity in IL-10 gene regulation. So, we further investigate to elucidate the role and mechanism of action of CNS-9 in IL-10 gene expression. The CNS-9 region is a DNase I-HSS in both Th1 and Th2 cells (Jones and Flavell, 2005), suggesting that it may regulate the expression of IL-10 in both T helper cell lineages. To test whether CNS-9 possessed different enhancer activity in Th1 and Th2 cells, we transiently transfected a CNS-9 reporter construct into each subset of primary Th cells and performed reporter assay. Although the CNS-9 region showed common HSS in Th1 and Th2 cells, strong enhancer activity of CNS-9 detected only in Th2 cells with stimulation dependent trans-activity (Fig. 1D). To exclude the effect of lineage preference of minimal IL-10 promoter, we also confirmed the trans-activity of minimal promoter in Th1 and Th2 cells. Minimal promoter (mpro) itself shows marginal trans-activity in Th1 and Th2 cells without lineage-specific activity (Fig. 1D). Th2 preferential trans-activity of CNS-9 is well matched with the Th2 preferential upregulation of IL-10 expression (Fig. 1E).</t>
+  </si>
+  <si>
+    <t>T cell helper 1</t>
+  </si>
+  <si>
+    <t>IL 10</t>
+  </si>
+  <si>
+    <t>131010934</t>
+  </si>
+  <si>
+    <t>131010514</t>
+  </si>
+  <si>
+    <t>CNS9</t>
+  </si>
+  <si>
+    <t>T cell helper 2</t>
+  </si>
+  <si>
+    <t>10.1158/0008-5472.CAN-07-6151</t>
+  </si>
+  <si>
+    <t>68:3505-3515</t>
+  </si>
+  <si>
+    <t>Cancer Research</t>
+  </si>
+  <si>
+    <t>Barnett, Daniel H.</t>
+  </si>
+  <si>
+    <t>Estrogen Receptor Regulation of Carbonic Anhydrase XII through a Distal Enhancer in Breast Cancer</t>
+  </si>
+  <si>
+    <t>The in vivo recruitment of agonist-bound ERa and coactivator proteins, and histone modifications associated with transactivation, suggest that the identified region f6 kb upstream of the TSS is an enhancer for the CA12 gene. Sequence analysis of putative transcription factor–binding sites revealed one imperfect ERE with a 1 bp mismatch at approximately _x0001_6047 (relative to TSS; Fig. 5A). To understand the cis elements involved in recruiting ERa and facilitating transactivation of CA12, we cloned the f6.9 kb fragment of genomic DNA containing the putative upstream enhancer spanning a region approximating the captured DNA fragments binding ERa (ChIPPET experiments; Fig. 3B) to just upstream of the CA12 TSS (_x0001_6832 to +46, Chr15:61461083-61467960). In addition, we also cloned a truncated 1.8 kb fragment approximating the overlapping ChIPPET cluster of ERa-binding fragments (_x0001_6832 to _x0001_4999), and both full-length (_x0001_6832 to +46) and truncated (_x0001_6832 to _x0001_4999) genomic fragments were then subcloned into luciferase reporter vectors to assay putative estrogen responsiveness (Fig. 5A). After transfection into MCF-7 cells and exposure to 10 nmol/L of E2 for 16 hours, the full-length reporter was stimulated approximately eight times over vehicle-treated transfectants or empty vector (Fig. 5B). In addition, the truncated reporter approximating the greatest overlap of ChIP-PET fragments (_x0001_6832 to _x0001_4999) was able to stimulate reporter activity upon treatment with E2 comparable to that of the full-length reporter (_x0001_6832 to +46; Fig. 5B), implying that the E2-responsive region is located in the far-upstream genomic region. As noted above, the ER-binding region at approximately _x0001_6kb has one imperfect ERE (Fig. 5A), which seemed a likely putative cis-regulatory element to direct ERa-dependent transactivation. To examine this, we mutated both the single consensus half-ERE (Mut. 1.0), or both the consensus half-ERE and imperfect arm of the ERE (Mut. 1.1). As seen in Fig. 5A and B, mutation of either one or both arms of the ERE abolished the ability of E2 to stimulate the _x0001_6832 to _x0001_4999 reporter, strongly suggesting that ER regulation of the cloned CA12 enhancer is dependent on an imperfect (1 mismatch) ERE at _x0001_6047 relative to the TSS.</t>
+  </si>
+  <si>
+    <t>Breast epithelium</t>
+  </si>
+  <si>
+    <t>CA12</t>
+  </si>
+  <si>
+    <t>ERE</t>
+  </si>
+  <si>
+    <t>10.1677/JOE-08-0377</t>
+  </si>
+  <si>
+    <t>200:107-117</t>
+  </si>
+  <si>
+    <t>Next, to identify the cis-elements responsible for the transactivation in mature adipocytes, the 50 flanking region of adiponectin gene was analyzed with the UCSC Genome Browser. The UCSC Genome Browser identified five evolutionally conserved regions within the K2664 bp upstream from the transcription start site of the human adiponectin gene (Fig. 1C). Two conserved elements are located between K2614 bp and K2517 bp (Element1 (E1): K2614/K2591 and Element2 (E2): K2524/K2517), and three conserved elements are in the proximal region of human adiponectin promoter (Element3 (E3): K177/K158, Element4 (E4): K105/K92, and Element5 (E5): K55/K43). To investigate the impact of these two distal conserved elements on the transactivation of human adiponectin promoter, luciferase activities driven by truncated constructs of human adiponectin promoter were measured in 3T3-L1 mature adipocytes. a2664Luc, including E1 and E2, exhibited high luciferase activity; however, the reporter construct deleted E1 (a2561Luc) showed apparently low luciferase activity similar to that driven by the proximal promoter construct with both deleted E1 and E2 (a563; Fig. 1D). This deletion suggested the significance of E1 for the transcriptional activation of human adiponectin promoter in 3T3-L1 mature adipocytes. To define the distal enhancer of the human adiponectin gene, reporter constructs of various truncated distal enhancers with proximal promoter were transfected into 3T3-L1 mature adipocytes. Although connection with the distal enhancer, including both E1 and E2 (a563CUnit1), potently increased the transcriptional activity of a563Luc, slight enhancement was observed by the distal enhancer deleted E1 or E2 (a563CUnit2 or a563C Unit3). Taken together, these results suggest that the distal enhancer of human adiponectin gene is composed of highly conserved E1 and E2, and that both are essential for transactivation in mature adipocytes.</t>
+  </si>
+  <si>
+    <t>186557946</t>
+  </si>
+  <si>
+    <t>186557932</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>200:107-116</t>
+  </si>
+  <si>
+    <t>186557872</t>
+  </si>
+  <si>
+    <t>186557849</t>
+  </si>
+  <si>
+    <t>10.1210/en.2007-0734</t>
+  </si>
+  <si>
+    <t>149: 146-153</t>
+  </si>
+  <si>
+    <t>Endocrinology</t>
+  </si>
+  <si>
+    <t>Galli, Carlo</t>
+  </si>
+  <si>
+    <t>Targeted Deletion of a Distant Transcriptional Enhancer of the Receptor Activator of Nuclear Factor-κB Ligand Gene Reduces Bone Remodeling and Increases Bone Mass</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>We next determined whether DCR deletion altered RANKL mRNA abundance in tissues that express the highest levels of the gene, namely bone and lymphoid tissues. At 1month of age, RANKL expression in bone was not significantly reduced by loss of the DCR (Fig. 4A). In contrast, RANKL expression was reduced by approximately 50% in the thymus and spleen of DCR_x0002_/_x0002_ mice. At 5 months of age, however, RANKL expression in DCR_x0002_/_x0002_ mice was reduced by 20 – 40% in bone and 25% in spleen (Fig. 4B). Thymus was not examined in the 5-month-old mice because the organ had undergone atrophy in both genotypes. As a control for these experiments, we quantified expression of AKAP11, a gene located immediately upstream of RANKL on chromosome 14. Transcripts for this gene were not different between wildtype and DCR_x0002_/_x0002_ mice in any of the tissues examined. These results demonstrate that the DCR contributes to RANKL expression in bone and lymphoid tissue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transgenic knockout mice </t>
+  </si>
+  <si>
+    <t>DCR</t>
+  </si>
+  <si>
+    <t>T cell naïve</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pgen.1000174</t>
+  </si>
+  <si>
+    <t>4: e1000174</t>
+  </si>
+  <si>
+    <t>PLoS Genet</t>
+  </si>
+  <si>
+    <t>Antonellis, Anthony</t>
+  </si>
+  <si>
+    <t>Identification of Neural Crest and Glial Enhancers at the Mouse Sox10 Locus through Transgenesis in Zebrafish</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>Briefly, each genomic segment was cloned upstream of a minimal promoter (Hsp68) and LacZ coding sequence, and the resulting constructs were injected into mouse pronuclei. Reporter gene expression was then studied at specific developmental time points (E11.5 and E13.5), and compared to the known expression of Sox10, via a LacZ reporter gene inserted at the Sox10 locus [18] (Figure 4A and B). Sox10-MCS4 directed reporter gene expression in nearly every tissue in which Sox10 is expressed at E11.5 (n = 2), at the resolution of whole mount embryo analysis (Figure 4C and D). Consistent with our observations in zebrafish, we detected reporter gene expression in the cranial, dorsal root and sympathetic ganglia (Figure 4C), the enteric nervous system (data not shown), and in melanoblasts (Figure 4D, inset). The only relevant structure in which reporter gene expression was not observed was the otic vesicle, consistent with our observations in zebrafish. Similarly, at E13.5 reporter expression directed by Sox10-MCS4 provided a near complete recapitulation of the endogenous Sox10 gene product (n = 3); for example, expression was observed in sensory neurons, sympathetic ganglia, the enteric nervous system, and melanoblasts (data not shown). Given the absence of sequence conservation between the corresponding sequences from these species, data resulting from the analysis of the mouse Sox10-MCS4 sequence in mice and fish display a remarkable concordance. Sox10-MCS7 likewise directed reporter gene expression consistent with both endogenous Sox10 expression at E11.5 (n = 1) and with our analyses in transgenic zebrafish. LacZ expression was detected in the cranial ganglia (Figure 4E), dorsal root ganglia (Figure 4E), otic vesicle (Figure 4E), melanoblasts (Figure 4F), sympathetic ganglia (Figure 4E), and in the enteric nervous system (Figure 4F, inset). These data underscore the potential role for Sox10-MCS7, among others, in the developmental regulation of Sox10 transcription. In particular, they suggest that this segment plays a role in Sox10 expression during melanocyte migration and development, and support the hypothesis that deletion of this element may contribute to the impaired pigmentation observed in the Sox10Hry mouse model of WS4 (see above). Furthermore, Sox10-MCS7 also directs expression in the mouse enteric nervous system, suggesting that deletion of this region may also contribute to the aganglionic megacolon observed in Sox10Hry mice. Taken together, these data suggest that analysis of mouse Sox10 regulatory sequences in zebrafish serves as a reliable surrogate for their analysis in mice. These studies revealed two enhancers with near pan-neural crest regulatory control, including sequences directing expression in melanoblasts.</t>
+  </si>
+  <si>
+    <t>Enteric nervous system</t>
+  </si>
+  <si>
+    <t>Sox 10</t>
+  </si>
+  <si>
+    <t>SOX10-MCS7</t>
+  </si>
+  <si>
+    <t>Symphatic ganglia</t>
+  </si>
+  <si>
+    <t>Melanoblasts</t>
+  </si>
+  <si>
+    <t>melanoblasts</t>
+  </si>
+  <si>
+    <t>SOX10-MCS4</t>
+  </si>
+  <si>
+    <t>enteric nervous system</t>
+  </si>
+  <si>
+    <t>CNS2 TYR</t>
+  </si>
+  <si>
+    <t>87542997</t>
+  </si>
+  <si>
+    <t>87548344</t>
+  </si>
+  <si>
+    <t>10797053	10797515</t>
+  </si>
+  <si>
+    <t>TYR tyrosinase</t>
+  </si>
+  <si>
+    <t>Retinal pigment epithelial cell</t>
+  </si>
+  <si>
+    <t>Since no appropriate RPE cell culture system is available to functionally address the activity of these CNS, we functionally tested the activity of these elements in lacZ transgenic mice. As a first experiment, the genomic region spanning from the Tyr transcription start up to − 30 kb, encompassing the Tyr promoter, the DRE, and the CNS-1 was cloned in a lacZ reporter construct (Super-large-Tyr∷lacZ construct, Fig. 4A). 2 transient transgenic E13.5 embryos and one stable line were obtained which depicted strong expression in melanocytes and no expression in the RPE (Figs. 4B, C, G). This result indicates that the 30 kb upstream sequence is not sufficient to provide expression to both pigment cell types. The 3 CNS were then individually cloned (CNS-1, 4.2 kb; CNS-2, 4.7 kb; CNS-3, 5 kb) upstream of a hsp68∷lacZ reporter plasmid (Fig. 4A) (Beermann et al., 2006; Kothary et al., 1989) and tested in transient transgenic experiments for their ability to target RPEspecific lacZ expression in mouse embryos. The tyrosinase promoter itself is capable to provide low levels of transgenic lacZ expression to the developing RPE (Camacho-Hübner and Beermann, 2001; Tief et al., 1996), and was thus considered to be not suitable for these experiments. Instead, we chose the hsp68 promoter, which has been widely used to identify enhancer activity of conserved noncoding sequences in transgenic experiments (Beermann et al., 2006; Nobrega et al., 2003; Sumiyama and Ruddle, 2003). 7 transient transgenic E13.5 embryos were obtained for the CNS-1 construct (CNS-1hsp68∷lacZ) and 5 were obtained for the CNS-3 construct (CNS-3-hsp68∷lacZ). All of them showed weak and unspecific lacZ expression (Figs. 4D, F, G). On the contrary, the 7 transient transgenic E13.5 embryos generated with the CNS-2 construct (CNS-2-hsp68∷lacZ) depicted strong lacZ expression in the RPE (Figs. 4E, G) indicating that the CNS-2 is a promising candidate f</t>
+  </si>
+  <si>
+    <t>Distinct distal regulatory elements control tyrosinase expression in melanocytes and the retinal pigment epithelium</t>
+  </si>
+  <si>
+    <t>Murisier, Fabien</t>
+  </si>
+  <si>
+    <t>303: 838-847</t>
+  </si>
+  <si>
+    <t>10.1016/j.ydbio.2006.11.038</t>
+  </si>
+  <si>
+    <t>SOXcre1</t>
+  </si>
+  <si>
+    <t>69007835</t>
+  </si>
+  <si>
+    <t>69009910</t>
+  </si>
+  <si>
+    <t>SOX 9</t>
+  </si>
+  <si>
+    <t>Reporter assay</t>
+  </si>
+  <si>
+    <t>We identified potential SOX9 distal regulatory elements using three convergent approaches: (i) in silico predictions, including 3-way RP scores (33), (ii) the proximity to regions flanking the syntenic Ods mouse deletion (21) and (iii) localization further upstream than reported translocation breakpoints that conveyed a CD phenotype through position effects (16). These elements, SOX9cre1 and SOX9cre2, appeared to be in close physical proximity to SOX9 in interphase nuclei, despite a linear genomic location of 1.1 Mb centromeric to the gene, suggesting that these elements may potentially act in a contact model of regulation (16,34). To examine empirically if these elements had the ability to regulate SOX9 expression in vitro, we constructed a series of reporter constructs using an SEAP reporter plasmid containing a minimal SOX9 promoter (Table 1). This 298-bp promoter was chosen based on homology of the human genomic sequence to the known functional elements in the mouse Sox9 promoter (35). The purpose of the small promoter was to minimize SOX9 expression due to the promoter alone so as to enable better quantification of the potential-regulatory ability of SOX9cre1 and SOX9cre2. We observed that SOX9cre1, but not SOX9cre2, enhances SOX9 expression in vitro approximately 2-fold (Fig. 1A). The presence of the two putative regulatory elements together in pGBW101-1,2 may provide a synergistic effect to SOX9cre1 alone (P ¼ 0.05; t-test). mportantly, SOX9cre1 does not enhance the activity of the SOX9 minimal promoter in HeLa cells, regardless of the assay times post transfection (Fig. 1A and B). Transfections in chondrosarcoma cells (SW1353 cells) that are derived from SOX9-expressing tissues and have baseline SOX9 expression (36) resulted in a statistically significant increase of reporter activity from the SOX9 minimal promoter in the presence of SOX9cre1, whereas non-SOX9-expressing HeLa cells did not show any significant reporter activity above that of the negative controls (Fig. 1A). Although HeLa cells have a shorter doubling time, the results were consistent at 20 or 65 h of assay time post-transfection (Fig. 1A and B). As anticipated, the assays were sensitive to the amount of constructs transfected; assays performed in SW1353 cells revealed a change in reporter activity from 3-fold (of control levels) to 12-fold when increasing the amount of input vector 10-fold (100 _x0002_ 109 plasmids) (Fig. 1C). Although not as dramatic, HeLa cells also expressed a statistically significant increase (2-fold) in reporter activity with the pGBW101-1,2 construct in the presence of a 10-fold increase of reporter vectors (P ¼ 4.8 _x0002_ 1024 with t-test, Fig. 1C). Although the apparent tissue-specific enhancement of SOX9 was consistent with low dosages of transfected constructs (as no significant increase of reporter activity could be demonstrated in HeLa cells), high levels of transfected constructs result in increased reporter activity in either cell type. The observation of dosage sensitivity to reporter concentrations in the HeLa background is consistent with a potential repressive element in SOX9 expression.</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>SOX9cre1, a cis-acting regulatory element located 1.1 Mb upstream of SOX9, mediates its enhancement through the SHH pathway</t>
+  </si>
+  <si>
+    <t>Bien-Willner,Gabriel.A</t>
+  </si>
+  <si>
+    <t>16: 1143-1156</t>
+  </si>
+  <si>
+    <t>10.1093/hmg/ddm061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H </t>
+  </si>
+  <si>
+    <t>52547967</t>
+  </si>
+  <si>
+    <t>52548184</t>
+  </si>
+  <si>
+    <t>Murine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Or4e5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transgenic Knockout mice </t>
+  </si>
+  <si>
+    <t>We examined the expression of various OR genes in the knockout mice by RT-PCR and in situ hybridization of OE sections. RNA could readily be detected for all tested OR genes, except for MOR28, MOR10, and MOR83. In situ hybridization of OE sections confirmed this observation. RNA expression of three proximal OR genes in the MOR28 cluster, MOR28, MOR10, and MOR83, was totally abolished in homozygous (H_x0005_/_x0005_) mutant mice (Fig. 4B). In contrast, four distal OR genes in the same cluster, MOR29A, MOR29B, MOR30A, and MOR30B, were only partially affected (Fig. 4B). No other OR genes, on the same chromosome or on the other chromosomes so far examined, were affected in the core-H knockout mice. Vomeronasal receptor genes residing on the same chromosome, e.g., V2r11, were expressed normally in the vomeronasal organ. In heterozygous mutant mice, expression frequencies of MOR28, MOR10, and MOR83 were reduced to _x0002_50%, indicating that the H_x0005_ phenotype of the mutant allele was not rescued by the wild-type allele in trans, between homologous chromosomes (Fig. 4B). We also analyzed the expression of two polymorphic MOR28 alleles in the compound heterozygous mice that carry the EGFP-tagged MOR28 with an intact H_x0006_ (C57BL/6), and the untagged MOR28 with a mutant H_x0005_ (129/SvJ). MOR28 cDNA was also cloned from heterozygous mice and sequenced after PCR: all clones were derived from the H_x0006_ (C57BL/6) allele (data not shown). Here again, the EGFP-tagged MOR28 allele (H_x0006_) did not rescue the mutant allele (H_x0005_)intrans, between homologous chromosomes (Fig. 4C). We have previously reported that deletion of the full 2.1-kb H region abolished expression of all four OR genes, MOR28, MOR10, MOR83, and MOR29A, in the YAC construct (9). In contrast to the transgenic results, core-H deletion in the knockout mice abolished expression of only three H-proximal OR genes (MOR28, MOR10, and MOR83), and partially affected four distal OR genes (MOR29A, MOR29B, MOR30A, and MOR30B). Basically the same result was obtained with the knockout mice deleting the full 2.1-kb H region (21). These observations indicate the presence of another LCR/enhancer downstream of the MOR28 cluster that would regulate the four distal OR genes (see Fig. 6A). It should be noted that the YAC construct lacks the 3_x0003_ region of the cluster including MOR29B, MOR30A, and MOR30B (9).</t>
+  </si>
+  <si>
+    <t>Deletion of the core-H region in mice abolishes the expression of three proximal odorant receptor genes in cis</t>
+  </si>
+  <si>
+    <t>Nishizumi, Hirofumi</t>
+  </si>
+  <si>
+    <t>Proceedings of the National Academy of Sciences</t>
+  </si>
+  <si>
+    <t>104: 20067-20072</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.0706544105</t>
+  </si>
+  <si>
+    <t>A cis-regulatory effect of the H region on the MOR28, MOR10, MOR83, and MOR29A genes has been demonstrated in mice carrying YAC transgenes (Serizawa et al., 2003). We asked whether a targeted deletion of the H region has a similar effect. F1 offspring from crosses of chimeras with B6 mice inherit one 129 allele and one B6 allele of the MOR28 cluster. In offspring that are heterozygous for the H mutation (DH/WT), the allele carrying the H deletion is derived from 129 and the wild-type allele from B6. Wild-type offspring of the chimeras (WT/WT) inherit two wild-type alleles, one from 129 and one from B6. We identified single nucleotide polymorphisms (SNPs) between 129 and B6 strains for the MOR28 and MOR10 OR genes (Figure 2A). We performed PCR on cDNA derived from the MOE of these two types of F1 offspring. We used combinations of primers that are specific either for the 129 or the B6 allele of the MOR28 and MOR10 genes (Figure 2B). As controls for the specificity of the primers and PCR conditions, we used cDNA from the MOE of 129 and B6 inbred mice. In DH/WT offspring, specific products can be obtained using primer combinations for the B6 alleles of MOR28 and MOR10, but not with primers for the 129 alleles of these genes. In control experiments, we can generate PCR products with 129-specific primers from cDNA of inbred 129 mice and from cDNA of F1 WT/WT offspring (Figure 2B). To corroborate the cis-regulatory effect of H on MOR28 and MOR10 by an independent method, we amplified cDNA fragments of these genes (comprising coding and 50 untranslated sequences) with primer combinations that are not specific for 129 or B6, and we sequenced the PCR products. As shown in Figure 2C for one SNP for the MOR28 and MOR10 genes, we can read all nucleotide differences between 129 and B6. From DH/WT mice, we obtain only B6 sequences, whereas both 129 and B6 sequences can be read from WT/WT littermates. Thus, the deletion of the 129 allele of H abolishes expression of MOR28 and MOR10 in cis, and the intact H allele on the B6 chromosome cannot rescue expression of these genes in trans on the mutant 129 chromosome in F1 heterozygous mice.</t>
+  </si>
+  <si>
+    <t>Local and cis Effects of the H Element on Expression of Odorant Receptor Genes in Mouse</t>
+  </si>
+  <si>
+    <t>Fuss. Stefan H.</t>
+  </si>
+  <si>
+    <t>130:373-384</t>
+  </si>
+  <si>
+    <t>10.1016/j.cell.2007.06.023</t>
+  </si>
+  <si>
+    <t>Npe2</t>
+  </si>
+  <si>
+    <t>25400242</t>
+  </si>
+  <si>
+    <t>25400411</t>
+  </si>
+  <si>
+    <t>POMC</t>
+  </si>
+  <si>
+    <t>Hypothalamic neurons</t>
+  </si>
+  <si>
+    <t>A 1.4-kb fragment of the mouse Pomc gene containing nPE2, but not nPE1, was ligated upstream of the chicken bglobin minimal promoter followed by the lacZ reporter gene and used to generate transgenic mice (Figure 3, top). The ability of nPE2 to drive transgenic expression to POMC neurons was determined by X-Gal staining followed by ACTH immunohistochemistry in coronal brain sections of adult F1 transgenic mice of five independently generated pedigrees (Figures 4A [wild type(WT)] and S1). The reporter gene was eutopically expressed in a high percentage of POMC arcuate neurons in three of the five lines (68%, 61%, and 45%, respectively). Variable patterns of ectopic reporter gene expression were also observed in nonhypothalamic brain neurons of these three transgenic lines (unpublished data). The other two transgenic lines did not express lacZ in the brain or other tissues analyzed. To investigate whether the developmental onset of nPE2-driven lacZ expression coincides with that of endogenous Pomc, we subjected 9.5, 10.5, 12.5, and 14.5 days post coitum (dpc) transgenic embryos to X-Gal staining followed by ACTH immunohistochemistry. Figure 3 shows that both signals are detected in the ventral diencephalon at 10.5 dpc, consistent with the onset of endogenous Pomc expression in this brain region [23]. As expected, b-gal activity was not seen in corticotrophs or melanotrophs of the pituitary [5], which start expressing POMC at 12.5 and 14.5 dpc, respectively [23]. Thus, reporter gene expression driven by a 1.4-kb genomic fragment containing nPE2 ligated to a heterologous promoter is able to recapitulate the spatial and temporal expression patterns of Pomc in mediobasal hypothalamic neurons. To identify the critical sequences of nPE2 for enhancer activity, we created an additional series of five transgenes carrying discrete overlapping deletions of approximately 45 bp each that we named regions 1 to 5 (Figures 1, 2, and 4). Each deletion was designed by taking into consideration the most conserved segments within nPE2 and the location of potential transcription factor binding sites, as determined using the MatInspector program [24]. For each transgene, we generated multiple transgenic mouse lines and analyzed lacZ expression in coronal brain sections from F1 adult animals and sagital sections from F1 or F2 whole embryos at 14.5 dpc. Like the WT construct, transgenes carrying deletions 2, 4, or 5 reliably targeted reporter gene expression to hypothalamic POMC neurons in adults (Figures 4 and S1) and embryos (Figures S2), and the overall expression levels were similar to WT nPE2 transgene. Colocalization of bgalactosidase activity within ACTH immunoreactive hypothalamic neurons was observed in two out of five nPE2-D2, three out of five nPE2-D4, and eight out of 12 nPE2-D5 transgenic mouse lines. In contrast, all five nPE2-D1 and six nPE2-D3 transgenic pedigrees failed to direct lacZ expression to POMC neurons (Figure 4; Table S1). Together, these results indicate that the nPE2 regions encompassing deletions 1 and 3 are essential for enhancer activity, as summarized in Figure 4B. Interestingly, region 3 is the most phylogenetically conserved sequence within nPE2 (Figures 1 and 2) and concentrates the vast majority of potential transcription factor binding sites identified by the MatInspector program (unpublished data).</t>
+  </si>
+  <si>
+    <t>Ancient Exaptation of a CORE-SINE Retroposon into a Highly Conserved Mammalian Neuronal Enhancer of the Proopiomelanocortin Gene</t>
+  </si>
+  <si>
+    <t>Santangelo, Andrea M</t>
+  </si>
+  <si>
+    <t>PLoS Genetics</t>
+  </si>
+  <si>
+    <t>3:e166</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pgen.0030166</t>
+  </si>
+  <si>
+    <t>CNS-2</t>
+  </si>
+  <si>
+    <t>53607067</t>
+  </si>
+  <si>
+    <t>53607504</t>
+  </si>
+  <si>
+    <t>IL4</t>
+  </si>
+  <si>
+    <t>Mast cells</t>
+  </si>
+  <si>
+    <t>We recently established a series of Tg lines to define the activity of regions of the Il13/Il4 locus that are highly conserved among vertebrate species (Fig. 2). In T-lineage, NKT and MP CD4 T cells from HS5a/CNS-2 GFP Tg mice (HS5a/CNS-2 Tg), GFP was expressed only in unstimulated cells, and Th2specific GFP expression was found only when the constitutively GFP-expressing cells were restimulated (42). We further investigated the function of these enhancer elements in mast cells and basophils. BMMCs were prepared by IL-3 culture (_x0006_95% c-Kit_x0001_ FcεR_x0001_), and peritoneal mast cells (PMC) were sorted from peritoneal cells as c-kit_x0001_ FcεR_x0001_ cells. Basophils were purified from spleen and bone marrow as B220_x0003_ c-Kit_x0003_DX-5_x0001_ FcεR_x0001_ cells by sorting. NKT cells were sorted as NK1.1_x0001_ cells from CD4 T cells in liver tissue from C57BL/6 background mice. The IL-4P Tg cells consistently showed no GFP expression in any of the lineages that we examined in this study. In contrast, the HS5a/CNS-2 enhancer was active in NKT cells, BMMC, PMC, and basophils but not in resting Th2 cells (Fig. 2). This result is consistent with our previous finding that the HS5a/CNS-2 enhancer is inactive in the Th2 cells derived from GFP-nonexpressing cells (42). To narrow down the region driving GFP expression, we further examined two Tg lines in which HS5a or both HS5a and the CNS-2 region were deleted (_x0004_5a and _x0004_5a/CNS Tg). The proportions of GFP-expressing cells in _x0004_5a and HS5a/CNS-2 Tg were comparable, but deletion of the CNS-2 region abolished GFP expression in all cell lineages (Fig. 2), suggesting that CNS-2 not only regulates IL-4 production in NKT and MP CD4 T cells but also has enhancer activity in mast cells and basophils. The IE was originally characterized as a mast cell-specific enhancer (15). However, in IE Tg cells, GFP expression was found only in PMCs, which are thought to be connectivetissue-type mast cells (Fig. 2). On the other hand, HS4 behaved as a positive regulatory element in basophils (Fig. 2). The HS4 region showed no GFP expression in any T lineage, because this region contains a silencer and the HS4 site, which may regulate Th1-specific silencing (4). These results indicate that IE and HS4 elements play a role as lineage-specific enhancers for connectivetissue-type mast cells and basophils, respectively.</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>Regulation of the &lt;i&gt;Il4&lt;/i&gt; Gene Is Independently Controlled by Proximal and Distal 3′ Enhancers in Mast Cells and Basophils</t>
+  </si>
+  <si>
+    <t>Yagi, Ryouji</t>
+  </si>
+  <si>
+    <t>27: 8087-8097</t>
+  </si>
+  <si>
+    <t>10.1128/MCB.00631-07</t>
+  </si>
+  <si>
+    <t>Enhancer position of hg38 cannot be found using Liftover</t>
+  </si>
+  <si>
+    <t>HS4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  53612319</t>
+  </si>
+  <si>
+    <t>53612601</t>
+  </si>
+  <si>
+    <t>Basophils</t>
+  </si>
+  <si>
+    <t>Basophils are thought to be an innate source of IL-4 in response to IL-3 and FceRI cross-linking (35), and results for 4get mice and 5a/CNS-2 Tg mice demonstrated that basophils acquire constitutive IL-4 transcription (19). The _x0004_5a Tg cells showed detectable levels of GFP expression, indicating that it is partly regulated by CNS-2 (Fig. 3A). However, B220_x0003_ c-Kit_x0003_ DX-5_x0001_ FcεRI_x0001_ basophils from spleen and BM cells of HS4 Tg mice also showed constitutive GFP expression (Fig. 5A and B), although its level was quite low compared to that in 5a/CNS-2 Tg and _x0004_5a Tg cells (Fig. 5C). Basophils secreted IL-4 in response to either IL-3 or Iono, and these stimuli induced activation of HS4 and CNS-2 enhancer activity in BM-derived basophils (Fig. 5C), suggesting that the HS4 element may contribute to basophil-specific expression of il4. Interestingly, HS4 is the regulatory element that controls il4 gene silencing in T-cell lineages; meanwhile, the same region activates the il4 gene in basophils.</t>
+  </si>
+  <si>
+    <t>CNS1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANKL </t>
+  </si>
+  <si>
+    <t>To determine whether CNS1-A or CNS1-B contained sequences capable of conferring responsiveness to cAMP, each fragment was inserted upstream from a minimal RANKL promoter and used to stably transfect UAMS-32P cells. Both fragments conferred significant cAMP responsiveness to the otherwise unresponsive minimal RANKL promoter (Fig. 5B). Since the construct containing CNS1-B was only approximately 30% more responsive than the construct containing CNS1-A, we concluded that sequences within CNS1-A were sufficient for a significant cAMP response and focused further analysis on this region. The cell type specificity of the cAMP responsiveness conferred by CNS1-A was determined by comparing its activity in either RANKL-expressing (UAMS-32P) or -nonexpressing (Hepa and RAW264.7) cell lines. The reporter construct containing CNS1-A was stimulated by db-cAMP exclusively in UAMS-32P cells, while a reporter containing three consensus CREs derived from the somatostatin promoter was stimulated in each cell type (Fig. 5C). These results demonstrate that sequences contained within CNS1-A confer responsiveness to cAMP in a cell-type-specific manner. To determine whether the CNS1-A region was required for cAMP responsiveness of the full-length BAC1 reporter construct, CNS1-A was deleted from the BAC1 construct using recombineering techniques to generate a construct designated 	CNS1-A. Similar to what was observed with the BAC7B construct, deletion of CNS1-A significantly blunted the responses to PTH, db-cAMP, and 1,25(OH)2D3, and, to a lesser extent, OSM (Fig. 5D), indicating that sequences within the 715-bp CNS1-A fragment play an important role in the responsiveness of the BAC1 construct to the PTH-cAMP pathway.</t>
+  </si>
+  <si>
+    <t>Parathyroid Hormone Controls Receptor Activator of NF-κB Ligand Gene Expression via a Distant Transcriptional Enhancer</t>
+  </si>
+  <si>
+    <t>Fu, Qiang</t>
+  </si>
+  <si>
+    <t>26: 6453-6468</t>
+  </si>
+  <si>
+    <t>10.1128/MCB.00356-06</t>
+  </si>
+  <si>
+    <t>SOX 9 E1</t>
+  </si>
+  <si>
+    <t>70088787</t>
+  </si>
+  <si>
+    <t>Sox 9</t>
+  </si>
+  <si>
+    <t>Lymph Node</t>
+  </si>
+  <si>
+    <t>The conserved 116 bp element E1 (Fig. 6A), located 28 kb 5V to human SOX9, was cloned as a 516 bp fragment in front of the Sox9 promoter, resulting in construct E1Sox9P (Fig. 1). We could establish three expressing transgenic mouse lines which all exhibited a similar expression pattern. Enhancer E1 mediated lacZ expression in a variety of tissues with an expression pattern closely resembling that of endogenous Sox9/SOX9 (Fig. 3). Similar to endogenous Sox9 expression (Ng et al., 1997), lacZ expression was first detected in the node at 7.5 dpc (Fig. 3A) and at 8.25 dpc also in the notochord (Fig. 3B). Expression of ß-galactosidase and of SOX9 protein in the notochordal plate and notochord continued through subsequent development (Figs. 3D – M) at least until 13.5 dpc (data not shown). At 8.5 dpc, we could also detect strong lacZ expression in mesodermal cells immediately lateral to the notochordal plate (Fig. 3D, inset), similar to endogenous Sox9 (Ng et al., 1997). Like the SOX9 protein, ß-galactosidase staining in the gut was already observed at 8.5 dpc (Figs. 3D – G). However, while the reporter gene seemed to be uniformly expressed from anterior to posterior (Figs. 3D and E), the SOX9 protein, while clearly detectable in the posterior region, was only barely detectable in the anterior region of the gut (Figs. 3F and G). This difference in expression pattern could also be seen at later stages. Thus, from 9.5 dpc on, lacZ was almost equally highly expressed in the esophagus, stomach, duodenum and hindgut (Figs. 3H, I, L and O), while SOX9 protein expression was significantly weaker in the esophagus than in the more distal parts of the gut (Figs. 3J, K, M and P). The expression pattern of ß-galactosidase and of SOX9 was almost identical, however, during lung development. Both proteins were already detectable at 9.5 dpc in the laryngotracheal groove of the foregut (Figs. 3I and K). By 11.0 dpc, ßgalactosidase/SOX9 expression could be seen in the bronchial epithelium of the two lung buds (Figs. 3L and M). Later on, the expression of both proteins was lost in the two main bronchi and was confined to the newly forming bronchial branches of the lung (Fig. 3N and data not shown). LacZ expression was also observed in the developing pancreas. Similar to endogenous Sox9 (Lioubinski et al., 2003), the ß-galactosidase protein was already present when the pancreatic buds first become visible at 9.5 – 10.0 dpc (Fig. 3C). Histological sections of 11.0 dpc transgenic embryos showed that ß-galactosidase was expressed, like SOX9, in the epithelium of both pancreatic buds (Figs. 3O and P). At 13.5 dpc, the reporter gene was still strongly expressed in the entire pancreatic epithelium (Fig. 3Q), similar to Sox9 (Lioubinski et al., 2003). Apart from these specific sites of expression recapitulating endogenous Sox9/SOX9 expression, in all three expressing lines analyzed, we observed ectopic reporter gene expression in the floor plate (Fig. 3L), in cells surrounding the neural tube (data not shown), within the presomitic mesoderm (data not shown) and in the newly formed somites (Fig. 3C).</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>Long-range upstream and downstream enhancers control distinct subsets of the complex spatiotemporal Sox9 expression pattern</t>
+  </si>
+  <si>
+    <t>Bagheri-Fam, Stefan</t>
+  </si>
+  <si>
+    <t>291: 382-397</t>
+  </si>
+  <si>
+    <t>10.1016/j.ydbio.2005.11.013</t>
+  </si>
+  <si>
+    <t>Notochord</t>
+  </si>
+  <si>
+    <t>Bronchial epithelium</t>
+  </si>
+  <si>
+    <t>Pancrease</t>
+  </si>
+  <si>
+    <t>SOX9 E3</t>
+  </si>
+  <si>
+    <t>Cranial neural crest</t>
+  </si>
+  <si>
+    <t>The regulatory potential of DNA fragments E5 (427 bp), E4 (521 bp) and E3 (533 bp) containing the conserved elements E5 (129 bp), E4 (157 bp) and E3 (139 bp), respectively, was first tested in combination (construct E5 –E3Sox9P, Fig. 1). Two expressing transgenic mouse lines could be established which exhibited a similar lacZ expression pattern in CNCCs and in the developing inner ear (Fig. 4), where endogenous Sox9 is strongly expressed (Ng et al., 1997). Sox9 expression in CNCCs has been reported to initiate as early as 8.0 dpc (Takahashi et al., 2001). In agreement with this early expression, E5 – E3-directed lacZ expression was first weakly detectable at the dorsal tips of the hindbrain neural folds at 7.75 dpc (Fig. 4A), becoming up-regulated after 8.0 dpc (Figs. 4B and E). At 8.5 dpc, both SOX9 and ßgalactosidase were expressed in pre-migratory CNCCs at the dorsal tips of the hindbrain neural folds, in migrating CNCCs immediately contiguous to these dorsal edges outside the neural tube and in CNCCs within the first and second pharyngeal arches (Figs. 4B, E and F and data not shown). However, the SOX9 protein exhibited a broader expression pattern than ß-galactosidase that included the more anteriorly located cranial NCCs of the forebrain and midbrain and the more posteriorly located trunk NCCs (data not shown). At 9.5 dpc, both SOX9 and ß-galactosidase were strongly expressed in migrating CNCCs originating from rhombomeres 2 and 4 and within the first, second and third pharyngeal arches (Figs. 4C, G and H and data not shown). At 10.5 dpc, ß-galactosidase continued to be expressed in the CNCCs of the pharyngeal arches (Fig. 4D), as did the SOX9 protein (not shown). Regarding inner ear development, the transgene was already strongly expressed at 8.0 –8.5 dpc in the otic placode (Figs. 4B and I), consistent with the early endogenous expression of SOX9 (Fig. 4J). At 9.0 dpc (data not shown) and 9.5 dpc, high reporter gene expression could be found in the invaginating otic placode (otic pit) and in the entire otic vesicle, respectively (Figs. 4C and K). In contrast, the SOX9 protein showed stronger expression in the medial part of the otic vesicle at 9.5 dpc (Fig. 4L). At 10.5 dpc, the transgene was still expressed in the otic vesicle and was also detectable in the developing endolymphatic duct (Fig. 4D). From 11.0 dpc on, expression of lacZ decreased significantly and was not detectable any more at 12.5 dpc (data not shown), similar to endogenous Sox9 (Ng et al., 1997). In order to determine the element(s) responsible for the expression in the cranial neural crest and in the inner ear, we examined reporter constructs containing DNA fragments E5, E4 and E3 as single DNA fragments (constructs E5Sox9P, E4Sox9P and E3Sox9P, Fig. 1). Unfortunately, no expressing line could be established for construct E5Sox9P. For construct E4Sox9P, we generated three transgenic lines, two of which expressed the transgene. As both lines only revealed the Sox9 promoter expression pattern (data not shown), E4 seems to have no independent enhancer activity. Finally, for construct E3Sox9P, we could establish six transgenic mouse lines of which only one expressed the lacZ gene. Since transgene expression was very weak in the E3 transgenic mouse line, we could not analyze lacZ expression in the same detail as we did for fragments E5 – E3. However, we found that enhancer E3 directed reporter gene expression exclusively to CNCCs and to the inner ear from approximately 8.0 to 8.5 dpc on (Figs. 4M and N), similar to DNA fragments E5 – E3 (Fig. 4O). This expression pattern was confirmed by an 8.5 dpc embryo transient transgenic for construct E3Sox9P (data not shown). Thus, enhancer E3 seems to recapitulate at least some if not all aspects.</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>Inner ear</t>
+  </si>
+  <si>
+    <t>SOX9 E7</t>
+  </si>
+  <si>
+    <t>Telencephalon</t>
+  </si>
+  <si>
+    <t>To obtain construct E7Sox9P (Fig. 1), we cloned a 1138 bp DNA fragment containing the conserved 403 bp element E7 in front of the Sox9 promoter. The regulatory potential of this construct was analyzed in transient transgenic embryos at 9.25 dpc and 11.5 dpc. At 9.25 dpc, six out of nine transgenic embryos showed strong ß-galactosidase staining in the telencephalon and in the midbrain (Figs. 5AC). This expression is consistent with endogenous Sox9 which starts to be expressed in the forebrain neuroepithelium as early as 8.5 dpc and is expressed in the midbrain from 9.5 dpc on; at 11.5 dpc, Sox9 expression is confined to the ventricular zone of the forebrain, midbrain, hindbrain and spinal cord (Zhao et al., 1997). However, none of the three out of six transgenic lacZ-expressing embryos at 11.5 dpc showed ß-galactosidase staining in the ventricular zone, indicating that enhancer E7 can only mediate the early aspect of Sox</t>
+  </si>
+  <si>
+    <t>SHOX ECS4</t>
+  </si>
+  <si>
+    <t>SHOX</t>
+  </si>
+  <si>
+    <t>Fibroblast</t>
+  </si>
+  <si>
+    <t>Thus, we examined the transcription activity of ECS3ECS5 as well as ECS6 with the dual-luciferase reporter assay system (Promega). Luciferase reporter constructs containing each ECS (ECS3, 861 bp; ECS4, 824 bp; ECS5,441 bp; ECS6, 634 bp) inserted into the 3′ region of the luciferase gene were created using the pGL3 vector with the SV40 promoter or the human SHOX promoter on exon 2 (432 to 5 bp) (Blaschke et al. 2003) (fig. 1B). The U2OS osteosarcoma cell line expressing SHOX (Rao et al. 2001) was transfected using lipofectamine (Invitrogen) with each reporter vector together with the pRLCMV vector used as an internal control for the transfection, and luciferase assays were performed 36 h later. After the experiments were performed five times, the normalized luciferase activity was found to be significantly increased only when the reporter vector with ECS4 and the SHOX promoter was transfected to U2OS cells (empty vs. ECS4; by t test) (fig. 1B). This imP p .011 plies that the putative SHOX enhancer resides in ECS4 and interacts with the SHOX promoter on exon 2. Finally, we searched ECS4 for potential binding sites for transcription factors relevant to bone development, using the MATINSPECTOR, TESS, and TFSEARCH programs. The putative binding sites with the maximum core similarity of 1.0 and a matrix similarity 10.75 were identified for HOXA9, HOXB9, PBX1, and MEIS1, as well as for PBX1-HOXA9 and MEIS1-HOXA9 heterodimers, which are known to be involved in limb development (Mercader et al. 1999; Shanmugam et al. 1999; Za ́k ́ any and Duboule 1999) (fig. 3). Thus, the sequencespecific DNA binding of such a factor(s) might mediate the enhancer activity for SHOX. However, other potential binding sites were also detected for various transcription factors, and the relevance to skeletal development has not been studied or excluded in most of the transcription factors. In addition, the binding sites remain unidentified for many transcription factors. Thus, further studies are necessary to define the enhancer sequence. In summary, the results suggest that the ∼800-bp ECS4 harbors the putative downstream enhancer for SHOX transcription. This information will provide a useful clue for the clarification of the molecular network involved in SHOX-dependent skeletal development.</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>Transactivation Function of an ∼800-bp Evolutionarily Conserved Sequence at the SHOX 3′ Region: Implication for the Downstream Enhancer</t>
+  </si>
+  <si>
+    <t>Fukami, Maki</t>
+  </si>
+  <si>
+    <t>78: 167-170</t>
+  </si>
+  <si>
+    <t>10.1086/499254</t>
+  </si>
+  <si>
+    <t>SFPE1</t>
+  </si>
+  <si>
+    <t>mm5</t>
+  </si>
+  <si>
+    <t>To determine whether Shh forebrain enhancer(s) resided on sequences beyond the 35 kb previously analyzed, we isolated two Bac clones (429M20 and 389P3) from the RPCI-23 library (CHORI) that extended 180 kb upstream and 160 kb downstream of the Shh promoter, respectively. The first Shh exon in each Bac was replaced with an eGFP reporter gene by homologous recombination in bacteria according to the method of Gong et al. (Gong et al., 2002) (see Materials and methods for a description of the targeting strategy). Transgenic embryos were then generated with the modified Bacs and assessed for reporter activity. At 9.5 dpc, embryos carrying either of the 429M20eGFP or 389P3eGFP transgenes displayed eGFP expression in the ventral midline of the CNS in a similar pattern to that generated from the locally acting Shh regulatory elements (Fig. 1A,B; Table 1) (Epstein et al., 1999). In addition, Shh-like reporter activity was detected in the hindgut of embryos carrying 429M20eGFP but not 389P3eGFP, indicating that cis-acting sequences controlling Shh expression in the gut endoderm are located on Bac 429M20 (Fig. 1A,B). It was clear from this experiment that regulatory sequences controlling Shh expression in the rostral forebrain were not located within 180 kb upstream or 160 kb downstream of the Shh promoter. However, as the previously identified local enhancers were active in embryos carrying 429M20eGFP, it provided us with an opportunity to assess their requirement in a genomic context more in keeping with the endogenous Shh locus. To address the contribution of SFPE1, SFPE2 and SBE1 in regulating Shh-like expression in the CNS, the sequences mediating their respective activities were deleted from Bac 429M20eGFP by homologous recombination in bacteria. Transgenic embryos carrying 429M20eGFPSFPE1 or 429M20eGFPSFPE2 showed no loss of eGFP expression in the floor plate of the hindbrain or spinal cord (compare Fig. 1B,I with 1C,K and 1D,L). By contrast, embryos carrying 429M20eGFPSFPE1,SFPE2, a Bac transgene in which both floor plate enhancers were deleted, showed barely detectable levels of eGFP staining in the ventral midline of the hindbrain and spinal cord, despite normal expression in the ventral midbrain (Fig. 1E,M). Conversely, embryos carrying 429M20eGFPSBE1, a Bac with a deletion of SBE1, showed an absence of eGFP expression in the ventral midbrain and caudal diencephalon, despite normal staining in the hindbrain and spinal cord (compare Fig. 1B,I,J with F,N,O). These results suggest that Shh-like transcription in the floor plate of the hindbrain and spinal cord is dependent on the redundant activities of SFPE1 and SFPE2, and that Shh-like expression in the ventral midbrain and caudal diencephalon is solely dependent on SBE1.</t>
+  </si>
+  <si>
+    <t>A functional screen for sonic hedgehog regulatory elements across a 1 Mb interval identifies long-range ventral forebrain enhancers</t>
+  </si>
+  <si>
+    <t>Jeong, Yongsu</t>
+  </si>
+  <si>
+    <t>133: 761-772</t>
+  </si>
+  <si>
+    <t>10.1242/dev.02239</t>
+  </si>
+  <si>
+    <t>mm5 genome cannot be lifted over. The oldest genome available for liftOver is mm6</t>
+  </si>
+  <si>
+    <t>hindbrain</t>
+  </si>
+  <si>
+    <t>SFPE2</t>
+  </si>
+  <si>
+    <t>SBE1</t>
+  </si>
+  <si>
+    <t>SBE 2</t>
+  </si>
+  <si>
+    <t>We next addressed whether the sequences mediating SBE2, SBE3 and SBE4 were required for the Shh-like pattern of expression in the ventral forebrain of embryos carrying 447L17lacZ. We reasoned that if SBE2-4 were necessary then deleting their sequences from 447L17lacZ would abrogate reporter activity in the ventral forebrain. However, if ventral forebrain expression persisted, in whole or in part, in the absence of SBE2-4, then additional regulatory elements would have to be implicated. Transgenic embryos carrying 447L17lacZSBE2 were devoid of reporter activity throughout most of the rostral-ventral diencephalon with the exception of a small region corresponding to prosomere 3 (p3) that showed weak bilateral patches of X-gal staining (compare Fig. 4A-C with Fig. 3B,H,N). Reporter activity in the ventral telencephalon and notochord were unaffected by the deletion of SBE2 (Fig. 4A,D). Interestingly, embryos carrying 447L17lacZSBE2, SBE3 showed a similar pattern of X-gal staining to those carrying 447L17lacZSBE2 (Fig. 4E-H). This finding indicates that SBE3 is not required for svz expression in the ventral telencephalon and that another forebrain element in Bac 447L17 must compensate in its absence (Fig. 4D,H). As SBE3 and SBE4 were each capable of directing reporter expression to the svz of the ventral telencephalon, it is likely that the two enhancers function in a partially redundant manner. To test this hypothesis, we engineered deletions in Bac 447L17lacZ of either SBE4 on its own or in combination with SBE3 and tested the respective transgenes (447L17lacZSBE4, 447L17lacZSBE3, SBE4) for reporter activity. Embryos carrying 447L17lacZSBE4 showed no X-gal staining in the vz of the ventral telencephalon, but did retain staining in the svz (compare Fig. 4L with Fig. 3T). Only when SBE3 and SBE4 were
+both deleted (447L17lacZSBE3,SBE4) was X-gal staining
+completely eliminated from the ventral telencephalon (Fig. 4M,P).
+These results confirm that the Shh-like expression derived from Bac
+447L17lacZ in the svz of the ventral telencephalon is dependent
+on both SBE3 and SBE4, and that the vz expression in the mge is
+solely dependent on SBE4.
+Redundant mechanisms were also identified in the regulation of
+Shh-like reporter activity in the p3 region of the ventral
+diencephalon. Only when SBE2 and SBE4 were deleted from Bac
+447L17lacZ (447L17lacZSBE2,SBE4) was reporter activity
+abrogated from the p3 domain (Fig. 4Q,R). Interestingly, transgenic
+embryos carrying 447L17lacZSBE2,SBE3,SBE4, in which all three forebrain enhancers were deleted, showed no X-gal staining
+anywhere in the ventral forebrain, despite persistent notochord
+staining, indicating that all Shh-like expression generated from Bac
+447L17lacZ is regulated by SBE2-4 (Fig. 4U-X).</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>SBE 3</t>
+  </si>
+  <si>
+    <t>SBE 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS2 </t>
+  </si>
+  <si>
+    <t>The d30 fragment contains the HS5a and HS5 hypersensitive sites. HS5a is inducible in restimulated Th2 cells, and HS5 corresponds to CNS-2 (Agarwal et al., 2000; Ansel et al., 2006). To narrow down the region driving GFP expression, we generated two mutant Tg lines in which HS5a or both HS5 and 5a was deleted from the d30 (D5a and D5 and 5a Tg). The proportion of GFP+ cells in D5a and d30 Tg was comparable, although low copy number lines (line 1 and 2) showed no GFP expression (Figure 1D). Further deletion of the HS5 site abolished GFP expression in unstimulated CD4 cells (Figure 1D). These results indicated that the CNS-2 region is responsible for GFP expression in a subset of resting CD4 T cells and developing Th2 cells.</t>
+  </si>
+  <si>
+    <t>The Interleukin-4 Enhancer CNS-2 Is Regulated by Notch Signals and Controls Initial Expression in NKT Cells and Memory-Type CD4 T Cells</t>
+  </si>
+  <si>
+    <t>Tanaka, Shiniya</t>
+  </si>
+  <si>
+    <t>24:689-701</t>
+  </si>
+  <si>
+    <t>10.1016/j.immuni.2006.04.009</t>
+  </si>
+  <si>
+    <t>coordinates obtained from https://doi.org/10.1016/s1074-7613(00)80215-0</t>
+  </si>
+  <si>
+    <t>CNS2</t>
+  </si>
+  <si>
+    <t>Activated CD-4 positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>CNS-22 Ifng</t>
+  </si>
+  <si>
+    <t>68569273</t>
+  </si>
+  <si>
+    <t>68569660</t>
+  </si>
+  <si>
+    <t>Ifng</t>
+  </si>
+  <si>
+    <t>T cell helper type 1</t>
+  </si>
+  <si>
+    <t>Transgenic knockout mice</t>
+  </si>
+  <si>
+    <t>To examine the function of CNS222, gBIfl-22 Tg mice were bred with mice transgenic for the Cre recombinase under control of the adenovirus EIIa promoter, which targets expression to the early mouse embryo (EIIacre) to delete the floxed CNS222 element in the germline (Lakso et al., 1996). PCR and PFGE Southern blot analyses of founder mice positive for both the gBIfl-22 and EIIa-cre transgenes confirmed deletion of the CNS222 and integrity of the remaining BAC transgene after recombination (Figures S4A–S4C); these mice were then crossed with WT C57Bl/6 to remove the EIIa-cre transgene. As in the nondeleted BAC-In animals, CNS-deleted gBIfl-22 mice (referred to as gBIfl-22D) were completely healthy and had normal immune phenotypes (data not shown). Both gBIfl-22 and gBIfl-22D mice were then bred to OT-II TCR transgenic mice so that the function of the CNS could be assessed in an antigen-specific system. Th1 and Th2 cells derived from WT OT-II, gBIfl-22.OTII, and gBIfl-22D.OT-II mice were examined for expression of IFNg, IL-4, and Thy1.1. Consistent with previous results (Figure 5), comparable frequencies of Th1 cells from each of the mice were IFNg+ (87.8% versus 74.5% versus 81.4%; Figure 6A). Remarkably, while approximately half of the IFNg+ cells from the CNS-containing BAC-In transgenic line expressed Thy1.1 (44.6%; gBIfl-22D.OT-II), only 1.1% of IFNg+ cells from the CNS222-deleted mice (gBIfl-22D.OT-II) were positive for Thy1.1. The loss of Thy1.1 expression was so profound that the profiles of the deleted mice appeared essentially identical to the OT-II controls. In Th2 cells, the results of CNS222 deletion were similar; the small fraction of Thy1.1 and IFNg double-positive cells found in the intact BAC-In mice was completely eliminated in CNS222-deleted animals. Again, no Thy1.1 was expressed by IL-4-positive cells derived from any of the mice tested, including those derived from gBIfl22D.OT-II animals. Thus, the CNS222 element was required for Ifng reporter expression by antigen-activated effector CD4 T cells, and its deletion did not lead to aberrant activation of the Ifng locus.</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>A Distal Conserved Sequence Element Controls Ifng Gene Expression by T Cells and NK Cells</t>
+  </si>
+  <si>
+    <t>Hatton, Robin D.</t>
+  </si>
+  <si>
+    <t>25:717-729</t>
+  </si>
+  <si>
+    <t>10.1016/j.immuni.2006.09.007</t>
+  </si>
+  <si>
+    <t>Trp1 enhancer</t>
+  </si>
+  <si>
+    <t>80819511</t>
+  </si>
+  <si>
+    <t>Tryp 1</t>
+  </si>
+  <si>
+    <t>Melanocyte</t>
+  </si>
+  <si>
+    <t>In order to analyze the 1.8-kb distal Tyrp1 element during mouse development, we generated transgenic mice with a lacZ reporter gene. In previous reports, 4.3 kb of the Tyrp1 promoter were shown to confer detectable lacZ expression to RPE but not to melanocytes (Raymond and Jackson, 1995; Schmidt et al., 1999). Similar results were obtained when 1.4 kb of the Tyrp1 promoter was used to express the SV40 T antigen or the attenuated diphtheria toxin-A gene in the RPE (Penna et al., 1998; Raymond and Jackson, 1995). To confirm this result, the 1.4-kb Tyrp1 promoter was cloned in front of a lacZ reporter gene (Fig. 5A) and analyzed in transgenic mice. Two transient transgenic embryos (E13.5) and five stable lines were generated. With exception of two non-expressing lines, lacZ staining was detected in RPE at E13.5 and birth, but never in melanocytes (Figs. 5B, C and D). The 1.8-kb Tyrp1 enhancer was then cloned in front of the 1.4-kb Tyrp1 promoter to generate the 1.8 Tyrp1∷lacZ construct (Fig. 5A). Seven transgenic lines were generated and analyzed at different developmental ages. Six displayed detectable lacZ expression in the RPE and four showed staining in melanocytes/ melanoblasts at E13.5 (Figs. 5B, E and F) and at birth (not shown). LacZ expression in melanocytes was detected from E12.5 onward. This is in concordance with previous reports where endogenous Tyrp1 expression was detected at E14.5 by in situ hybridization (Steel et al., 1992). The earlier expression in transgenic mice might be due to a higher copy number and to an increased sensitivity of the lacZ assay. This has previously been reported when comparing tyrosinase in situ hybridization data with transgenic lacZ expression (Camacho-Hübner and Beermann, 2001; Steel et al., 1992). The results demonstrate that the 1.8-kb Tyrp1 upstream element is sufficient to confer expression to melanocytes in transgenic mice. It furthermore suggests that this evolutionarily conserved region is a melanocyte-specific enhancer.</t>
+  </si>
+  <si>
+    <t>A conserved transcriptional enhancer that specifies Tyrp1 expression to melanocytes</t>
+  </si>
+  <si>
+    <t>Murisier,Fabien</t>
+  </si>
+  <si>
+    <t>298:644-655</t>
+  </si>
+  <si>
+    <t>10.1016/j.ydbio.2006.05.011</t>
+  </si>
+  <si>
+    <t>FKBP5 I5E</t>
+  </si>
+  <si>
+    <t>28420727</t>
+  </si>
+  <si>
+    <t>FKBP5</t>
+  </si>
+  <si>
+    <t>Prostate</t>
+  </si>
+  <si>
+    <t>Prostate epithelium</t>
+  </si>
+  <si>
+    <t>ARE-6 and -7 are located within a 665-bp block of sequence that lies within intron 5 and is well conserved among mice, rats, and humans (Fig. 3). We cloned a 1-kb fragment containing the putative androgen-responsive, I5E into the Pro-36 minimal promoter-luciferase reporter vector and tested its ability to enhance reporter gene expression after androgen stimulation. In LAPC-4 cells, the I5E element enhanced reporter activity in an androgen-dependent manner (Fig. 4). Furthermore, the approximately 4-fold androgen-dependent increase in reporter activity mirrors that of the endogenous mouse FKBP51 gene after testosterone stimulation (Fig. 1B). Deletion of ARE-7, but not ARE-6, abrogated androgen-dependent I5E activity (Fig. 4). Thus, the FKBP5 I5E element responds to androgen stimulation in vitro in a manner specifically dependent on ARE-7.</t>
+  </si>
+  <si>
+    <t>Direct, Androgen Receptor-Mediated Regulation of the FKBP5 Gene via a Distal Enhancer Element</t>
+  </si>
+  <si>
+    <t>Magee, Jeffrey A.</t>
+  </si>
+  <si>
+    <t>147: 590-598</t>
+  </si>
+  <si>
+    <t>10.1210/en.2005-1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCR1 </t>
+  </si>
+  <si>
+    <t>CRYAA</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>To identify putative DCRs, we aligned the mouse and human aA-crystallin loci using the VISTA algorithm for comparative genomics to identify evolutionary conserved noncoding regions as described in Supplementary data. We found three such regions termed DCR1, DCR2 and DCR3, as schematically shown in Figure 1A. To test their possible enhancerlike activities, we generated a series of reporter constructs containing the lens-specific aA-crystallin promoter fragment _x0001_111 t o þ 46 driving luciferase expression combined with individual DCRs (see Figure 1B). It has been shown previously that treatment of explanted lens epithelia with FGF2 can induce endogenous aA-crystallin expression (Leenders et al, 1997). To assess whether any of these DCRs could confer induction of reporter activities in the presence of FGF2, we performed a series of transfections in primary lens epithelial explants and evaluated their promoter activities in the presence or absence of 100 ng/ml of FGF2. In the absence of FGF2, DCR1 activated the promoter 1.6-fold (Figure 1C). In contrast, both DCR2 and 3 reduced this promoter activity approximately two-fold. In the presence of FGF2, DCR1 increased the promoter activity approximately seven-fold compared to that of the promoter alone (Figure 1D). In contrast, the promoter activities of constructs containing DCR2 and DCR3 were similar to the activity of the promoter alone. Thus, DCR1 is likely to play a role in aA-crystallin gene regulation downstream of FGF-signaling.</t>
+  </si>
+  <si>
+    <t>Regulation of αA-crystallin via Pax6, c-Maf, CREB and a broad domain of lens-specific chromatin</t>
+  </si>
+  <si>
+    <t>Yang, Ying</t>
+  </si>
+  <si>
+    <t>The EMBO Journal</t>
+  </si>
+  <si>
+    <t>25:2107-2118</t>
+  </si>
+  <si>
+    <t>10.1038/sj.emboj.7601114</t>
+  </si>
+  <si>
+    <t>SOST ECR5</t>
+  </si>
+  <si>
+    <t>SOST</t>
+  </si>
+  <si>
+    <t>Cartilage</t>
+  </si>
+  <si>
+    <t>To test ECR5’s ability to drive expression in the skeletal structures of the mouse embryo, we expressed an ECR5-hsp68LacZ construct in transgenic mice (Fig. 5D; Nobrega et al. 2003). Transient transgenic animals were created using standard techniques (Mortlock et al. 2003) and F0 pups were stained for _x0003_-galactosidase (LacZ) expression at E14.5 (Nobrega et al. 2003). Transgenic embryos expressed LacZ in cartilage of the ribs, vertebrae, and skull plates (Fig. 5D), and the expression was identical in all positive transgenic embryos obtained from two independent injections (N = 2).</t>
+  </si>
+  <si>
+    <t>Genomic deletion of a long-range bone enhancer misregulates sclerostin in Van Buchem disease</t>
+  </si>
+  <si>
+    <t>Loots, Gabriela G.</t>
+  </si>
+  <si>
+    <t>15: 928-935</t>
+  </si>
+  <si>
+    <t>10.1101/gr.3437105</t>
+  </si>
+  <si>
+    <t>Gata4 CR2</t>
+  </si>
+  <si>
+    <t>63282782</t>
+  </si>
+  <si>
+    <t>63287512</t>
+  </si>
+  <si>
+    <t>Mesoderm</t>
+  </si>
+  <si>
+    <t>Trangenic Reporter Mice</t>
+  </si>
+  <si>
+    <t>we tested each of these conserved noncoding sequences by cloning each into the transgenic reporter plasmid HSP68-lacZ (Kothary et al., 1989), as depicted in Fig. 1, and testing each for activity in transgenic embryos. Among the five conserved noncoding sequences within the mouse Gata4 locus, the G2 region represented a distal upstream transcriptional enhancer that was sufficient to direct lacZ expression to the lateral mesoderm in transgenic embryos, beginning at 7.5 dpc (Fig. 2). The G2 mesodermal enhancer spanned 4368 bp and was located between 45.3 and 40.9 kb upstream of the transcriptional start site At 7.75 dpc, this enhancer directed expression throughout the lateral mesoderm, including both somatic and splanchnic mesoderm, and it directed very robust expression in the allantois at this stage (Fig. 2A). This broad pattern of activity within the lateral mesoderm continued at 8.0 dpc and 8.25 dpc (Fig. 2B,E), and could also be detected in the septum transversum at this stage (Fig. 2B). By 9.5 dpc, expression directed by the Gata4 G2 enhancer was strongly detected in the septum transversum and in visceral mesoderm, but it could no longer be observed in the somatic mesoderm (Fig. 2,J). Expression of the transgene was clearly restricted to the mesoderm and was completely absent from the endoderm. Within the septum transversum, staining could be seen in the mesenchyme, but not in the hepatic endoderm, where expression was noticeably absent (Fig. 2F,J,M). Similarly, expression in the gut was restricted to the mesenchyme and was absent from the endodermal component. Expression directed by the Gata4 G2 enhancer overlapped endogenous Gata4 expression at all stages (Fig. 2C,I,N). Expression of endogenous Gata4 was broader than the expression of the G2lacZ transgene, probably as a result of other enhancers controlling other aspects of Gata4 expression. Transgene expression was often stronger than endogenous gene expression because of the long halflife and enzymatic activity of βgalactosidase (Fig. 2, compare panels B and C), but transgene expression was always contained within the weaker endogenous pattern.</t>
+  </si>
+  <si>
+    <t>Gata4 expression in lateral mesoderm is downstream of BMP4 and is activated directly by Forkhead and GATA transcription factors through a distal enhancer element</t>
+  </si>
+  <si>
+    <t>Rojas,Anabel</t>
+  </si>
+  <si>
+    <t>132: 3405-3417</t>
+  </si>
+  <si>
+    <t>10.1242/dev.01913</t>
+  </si>
+  <si>
+    <t>disease related</t>
+  </si>
+  <si>
+    <t>Ep RAG2</t>
+  </si>
+  <si>
+    <t>101621744</t>
+  </si>
+  <si>
+    <t>101621913</t>
+  </si>
+  <si>
+    <t>RAG2</t>
+  </si>
+  <si>
+    <t>To determine the cell specificity of the Ep element, EGFP reporter constructs containing the RAG-2 promoter with or without Ep (Ep-R2P-EGFP and R2P-EGFP) were transiently transfected into 18.81 (pre-B), BAL17 (B), LSB11–1 (T) and EL4 (T) cells, and the enhancer activity was examined. The EGFP reporter construct containing a TCRb enhancer (Eb-R2P-EGFP) was used as a positive control. As shown in Fig. 1D, Ep increased the mouse RAG-2 promoter activity 6–10-fold in B cell lines (18.81 and BAL17), but not in T cell lines (LSB11–1 and EL4). To test the enhancer activity in non-lymphoid cells, the EGFP reporter constructs containing the HSV thymidine kinase (TK) promoter with or without Ep (EpTKP-EGFP and TKP-EGFP) were transfected into lymphoid (18.81) and non-lymphoid cell lines (L and NIH3T3), and the relative enhancer activity was assessed. The EGFP reporter construct containing the SV40 enhancer (Esv-TKP-EGFP) was used as a positive control. As shown in Fig. 1E, the enhancer activity of Ep was seen in 18.81 cells, but not in either L or NIH3T3 cells. These results suggest that Ep functions in a Blymphoid cell-specific manner.</t>
+  </si>
+  <si>
+    <t>Characterization of the proximal enhancer element and transcriptional regulatory factors for murine recombination activating gene‐2</t>
+  </si>
+  <si>
+    <t>Wei, Xing‐Cheng</t>
+  </si>
+  <si>
+    <t>European Journal of Immunology</t>
+  </si>
+  <si>
+    <t>35: 612-621</t>
+  </si>
+  <si>
+    <t>10.1002/eji.200425185</t>
+  </si>
+  <si>
+    <t>UH6</t>
+  </si>
+  <si>
+    <t>Nkx2-5</t>
+  </si>
+  <si>
+    <t>The ability of each of these highly homologous regions, UH4, UH5, and UH6, to drive lacZ expression was tested in transgenic mice by using the Hsp68LacZ expression vector. UH6-Hsp68LacZ directed lacZ expression at embryonic (E) days 10.5 and 12.5 in the entire RV and the interventricular septum (IVS) (Fig. 3 Aa–Af ). LacZ staining also was observed in the trabecular layer of the LV (Fig. 3 Ab, Ae, and Af ), indicating that there was a weak LV enhancer within this transgene, in addition to the known RV enhancer within the UH6 region. In the atrial region, there was a subset of LacZ-positive cells in the interatrial groove. There also was a cluster of LacZ-positive cells in the IVS. The pattern of LacZ expression remained constant until E12.5 (Fig. 3 Ac–Af ) and later The UH5-Hsp68lacZ transgene directed LacZ expression throughout the looping heart at E9.5 (Fig. 3Ba), in the common atria, the common ventricle, and the aortic sac (Fig. 3Bb). LacZ expression also was observed in the foregut at E9.5 (Fig. 3Ba). By E12.5, the LacZ expression was restricted to both atria, AVC, IVS, and a subset of cardiomyocytes in the LV but was absent from the RV (Fig. 3 Bc–Bg). LacZ expression also was observed at E12.5 in the distal stomach region (Fig. 3Bd, black arrow), which is the site of foregut-derived pyloric sphincter and the spleen, that express Nkx2-5. In situ hybridization using antisense BMP2 probe showed that BMP2 gene was expressed in the myocardial layers overlaying the AVC (Fig. 3C), which colocalized with the LacZ exp</t>
+  </si>
+  <si>
+    <t>Complex cardiac Nkx2-5 gene expression activated by noggin-sensitive enhancers followed by chamber-specific modules</t>
+  </si>
+  <si>
+    <t>Chi, Xuan</t>
+  </si>
+  <si>
+    <t>102: 13490-13495</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.0504295102</t>
+  </si>
+  <si>
+    <t>UH5</t>
+  </si>
+  <si>
+    <t>26856025</t>
+  </si>
+  <si>
+    <t>Atrium</t>
+  </si>
+  <si>
+    <t>UH4</t>
+  </si>
+  <si>
+    <t>26861070</t>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>CNS-20B</t>
+  </si>
+  <si>
+    <t>130999860</t>
+  </si>
+  <si>
+    <t>131000856</t>
+  </si>
+  <si>
+    <t>IL10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test for classical enhancer activity in fragments containing CNS and/or HSS (Fig. 5A), we used a luciferase reporter assay (Fig. 5, B and C) performed in Th2 clone D10 and Th1 clone AE7. Noncoding HSS-CNS fragments were cloned upstream of a minimal promoter-driven luciferase plasmid (pGL3promoter) to determine whether the sites could enhance or repress heterologous promoter activity. We used the minimal SV40 promoter in pGL3promoter to optimize the chance of detecting classical enhancer activity in this study and because, before in vivo analysis, we do not know whether the HSS regulate IL-10 or other cytokine promoters in the region. A representative result assessing the enhancer function of each fragment in D10 cells is illustrated in Fig. 5B. In D10 cells, CNS_x0008_26, which represents the largest CNS (273 bp, 88% homology) in the IL-10 family locus, and CNS_x0008_9 (the second largest CNS, 259 bp, 84% homology) were the most responsive to PMAionomycin activation; i.e., the fold increase in luciferase levels before and after PMA-ionomycin treatment was greatest for CNS_x0008_26 and CNS_x0008_9. When directly comparing luciferase levels (either with or without activation) between the control plasmid pGL3promoter and the test constructs, it was apparent that CNS_x0008_29.8B did not have any significant effect on luciferase transcription. The highest transcriptional responses were observed with CNS_x0008_20B, 9, and CNS_x0001_6.45, which significantly enhanced PMA-ionomycin-induced transcription 5- to 6-fold over the control pGL3promoter. CNS_x0001_6.45, the most potent, could enhance minimal SV40 promoter-mediated transcription 6-fold, irrespective of PMA-ionomycin activation, and encompasses conserved sequence 6.45 kb downstream of the transcription start site for IL-10. CNS_x0008_9 includes 1400-bp DNA from 9 kb upstream of IL-10 and enhanced transcription 3- to 5-fold. A shorter, 700-bp fragment of CNS_x0008_9 containing only the most conserved sequence was tested and was found to mediate similar affects in the reverse orientation (results not shown), indicating that it is a true enhancer of transcription. The remaining constructs enhanced transcription by a small but consistent degree (2- to 3-fold or less) although the significance of a 2-fold enhancement in this assay is questionable. To determine whether the strongest enhancers CNS_x0008_20B, CNS_x0008_9, and CNS_x0001_6.45 function in both IL-10-expressing (D10) and nonexpressing (AE7) cells, we transfected AE7 and D10 cells. CNS_x0008_29.8B was included as a nonresponsive control. The levels of normalized luciferase following PMA-ionomycin activation were assayed and calculated relative to the pGL3 promoter control (fold induction; plotted Fig. 5C). CNS_x0008_29.8B functioned similarly to the control, but surprisingly, the enhancer activity of CNS_x0008_9 was more than doubled in Th1 cells (unpaired t test, p </t>
+  </si>
+  <si>
+    <t>Distal Enhancer Elements Transcribe Intergenic RNA in the IL-10 Family Gene Cluster</t>
+  </si>
+  <si>
+    <t>Jones, Elizabeth A.</t>
+  </si>
+  <si>
+    <t>175: 7437-7446</t>
+  </si>
+  <si>
+    <t>10.4049/jimmunol.175.11.7437</t>
+  </si>
+  <si>
+    <t>CNS-9</t>
+  </si>
+  <si>
+    <t>131009846</t>
+  </si>
+  <si>
+    <t>131009866</t>
+  </si>
+  <si>
+    <t>206785308</t>
+  </si>
+  <si>
+    <t>CNS+6.45</t>
+  </si>
+  <si>
+    <t>131025643</t>
+  </si>
+  <si>
+    <t>Th1</t>
+  </si>
+  <si>
+    <t>URE</t>
+  </si>
+  <si>
+    <t>91082224</t>
+  </si>
+  <si>
+    <t>91082526</t>
+  </si>
+  <si>
+    <t>PU.1</t>
+  </si>
+  <si>
+    <t>Myeloid</t>
+  </si>
+  <si>
+    <t>Therefore, to directly demonstrate that the kb 14 URE could direct reporter gene expression in vivo, we produced transgenic mouse lines which included the 3.4-kb fragment from the kb 14 URE, the 2.1-kb PU.1 promoter, and a Thy1.1 cDNA reporter, with a truncated human growth hormone gene to provide splice donor-acceptor sites and a polyadenylation signal (Fig. 1). We generated six transgenic founders and assessed Thy1.1 protein expression by flow cytometry. Progeny of three of the five founder lines demonstrated the presence of Thy1.1 reporter gene expression in myeloid cells and B lymphocytes (Fig. 2A); two other founder lines did not express the reporter, and a sixth did not pass the transgene through the germ line. A majority of the B220 B cells and a majority of Mac-1 myeloid cells expressed Thy1.1 protein on their surface. We also observed expression of the Thy1.1 reporter on cells which expressed Gr-1, which is highly expressed on granulocytes rather than monocytes/macrophages, whereas most TER119 erythroid cells did not express the Thy1.1 protein. Since endogenous Thy1.1 was expressed at high levels in the T cells of the strain of mice utilized in these studies, we could not assess the specificity of the URE in T cells. Therefore, we generated an additional founder line which contained the same PU.1 URE and promoter regulatory elements expressing an EGFP as a reporter (Fig. 1). Analysis of progeny of this second transgenic founder again demonstrated expression in myeloid cells at high levels in both Mac-1 and Gr-1 cells as well as at a lower level in B lymphocytes (Fig. 2B). Interestingly, we again observed a lesser amount of expression of the EGFP reporter in TER119 erythroid cells, perhaps reflecting the expression of the endogenous PU.1 gene in early erythroid cells (17, 33). Analysis of the spleen demonstrated EGFP reporter coexpression with B220, CD19, and IL-7 receptor , consistent with expression in B cells (Fig. 2C, left panels). In addition, the reporter could be detected in cells expressing the natural killer (NK) marker NK1.1 (Fig. 2C). We could easily observe expression in total bone marrow but not in total thymus (Fig. 2C, right panels). Therefore, it appears that the kb 14 URE indeed confers cell-type-specific expression in mature cells in vivo in a pattern similar to that previously described for the endogenous PU.1 gene. We next assessed the activity and specificity of the kb 14 URE in myeloid progenitor cell populations (1). We have previously reported that endogenous PU.1 is expressed in common myeloid progenitors (CMP) and granulocyte-macrophage progenitors (GMP) but not in MEP (1, 33). When we measured Thy1.1 reporter activity in progenitors, more than 70% of CMP and GMP expressed Thy1.1 protein, whereas less than 5% of MEP showed such expression (Fig. 2D). These data demonstrate that the PU.1 kb 14 upstream region and promoter can direct expression of the Thy1.1 reporter in a manner similar to that of endogenous murine PU.1 gene in both mature cells and in hematopoietic progenitors.</t>
+  </si>
+  <si>
+    <t>Potential Autoregulation of Transcription Factor PU.1 by an Upstream Regulatory Element</t>
+  </si>
+  <si>
+    <t>Okuno, Yukata</t>
+  </si>
+  <si>
+    <t>25: 2832-2845</t>
+  </si>
+  <si>
+    <t>10.1128/MCB.25.7.2832-2845.2005</t>
+  </si>
+  <si>
+    <t>CYP3A4 enhancer</t>
+  </si>
+  <si>
+    <t>99387486</t>
+  </si>
+  <si>
+    <t>99387772</t>
+  </si>
+  <si>
+    <t>97545184</t>
+  </si>
+  <si>
+    <t>97545470</t>
+  </si>
+  <si>
+    <t>CYP3A4</t>
+  </si>
+  <si>
+    <t>Hepatocyte</t>
+  </si>
+  <si>
+    <t>To more precisely locate the C/EBP_x0001_-responsive element in the _x0002_3557 to _x0002_6954-bp region, sequential deletion fragments were generated and cloned into the pGL3-Promoter vector, which contains a simian virus 40 promoter upstream of the luciferase gene (Fig. 3). Reporter assays with 11 different chimeric constructs revealed an EcoRI-PvuII 590-bp fragment, which showed maximal response to C/EBP_x0001_-LAP (_x0003_17-fold increase upon transfection in HepG2 cells with 0.1 _x0004_g of C/EBP_x0001_-LAP expression vector) (Fig. 3). After this observation, the response to C/EBP_x0001_-LAP was investigated in two PCR-cloned fragments overlapping the EcoRI-PvuII sequence. We found that the C/EBP_x0001_-LAP response sequence was located between bases _x0002_5950 and _x0002_5663 of the CYP3A4 5_x0001_-flanking region. This 288-bp enhancer sequence showed a 23.1-fold activation upon transfection of 0.1 _x0004_g of C/EBP_x0001_LAP (Fig. 3).</t>
+  </si>
+  <si>
+    <t>Transcriptional Regulation of the Human Hepatic &lt;i&gt;CYP3A4&lt;/i&gt; : Identification of a New Distal Enhancer Region Responsive to CCAAT/Enhancer-Binding Protein β Isoforms (Liver Activating Protein and Liver Inhibitory Protein)</t>
+  </si>
+  <si>
+    <t>Martínez-Jiménez, Celia.P</t>
+  </si>
+  <si>
+    <t>67: 2088-2101</t>
+  </si>
+  <si>
+    <t>10.1124/mol.104.008169</t>
   </si>
 </sst>
 </file>
@@ -8747,9 +9927,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8824,6 +10018,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -8848,12 +10071,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8861,62 +10086,129 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{630BDEFC-1311-44E2-BC5E-BB165B19AC8A}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{4163B2D6-067A-4E09-8A19-15B612C63C62}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{823280FC-BBFF-49C5-9640-C856396E1010}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9230,7 +10522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715C1BEF-F5A0-4A9D-8A7B-75C6A70E4B88}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="103" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -13249,10 +14541,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF237E6D-3085-4401-BE3F-23B3FD5C3E85}">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="A18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -13548,94 +14840,7789 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C4" s="24">
+        <v>6</v>
+      </c>
+      <c r="D4" s="24">
+        <v>129261284</v>
+      </c>
+      <c r="E4" s="25">
+        <v>129262223</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2386</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="24">
+        <v>12</v>
+      </c>
+      <c r="I4" s="24">
+        <v>9764649</v>
+      </c>
+      <c r="J4" s="24">
+        <v>9765612</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L4">
+        <v>969</v>
+      </c>
+      <c r="M4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2862</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>2330</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2863</v>
+      </c>
+      <c r="U4" t="s">
+        <v>2864</v>
+      </c>
+      <c r="V4">
+        <v>2009</v>
+      </c>
+      <c r="W4" t="s">
+        <v>189</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>2865</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="Z4">
+        <v>19841192</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>2867</v>
+      </c>
       <c r="AB4" s="5"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C5" s="24">
+        <v>6</v>
+      </c>
+      <c r="D5" s="24">
+        <v>129292227</v>
+      </c>
+      <c r="E5" s="24">
+        <v>129292935</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2386</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="24">
+        <v>12</v>
+      </c>
+      <c r="I5" s="24">
+        <v>9793378</v>
+      </c>
+      <c r="J5" s="24">
+        <v>9794104</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L5">
+        <v>969</v>
+      </c>
+      <c r="M5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2862</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>2330</v>
+      </c>
+      <c r="T5" t="s">
+        <v>2863</v>
+      </c>
+      <c r="U5" t="s">
+        <v>2864</v>
+      </c>
+      <c r="V5">
+        <v>2009</v>
+      </c>
+      <c r="W5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>2865</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>2866</v>
+      </c>
+      <c r="Z5">
+        <v>19841192</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>2867</v>
+      </c>
       <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C6" s="24">
+        <v>17</v>
+      </c>
+      <c r="D6" s="24">
+        <v>25805432</v>
+      </c>
+      <c r="E6" s="24">
+        <v>25806000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="24">
+        <v>16</v>
+      </c>
+      <c r="I6" s="24">
+        <v>842763</v>
+      </c>
+      <c r="J6" s="24">
+        <v>843437</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2870</v>
+      </c>
+      <c r="L6">
+        <v>20681</v>
+      </c>
+      <c r="M6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2871</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" t="s">
+        <v>2872</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>2873</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2874</v>
+      </c>
+      <c r="U6" t="s">
+        <v>2875</v>
+      </c>
+      <c r="V6">
+        <v>2009</v>
+      </c>
+      <c r="W6" t="s">
+        <v>2876</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>2877</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>2878</v>
+      </c>
+      <c r="Z6">
+        <v>19638316</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>2867</v>
+      </c>
       <c r="AB6" s="5"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C7" s="24">
+        <v>17</v>
+      </c>
+      <c r="D7" s="24">
+        <v>25805432</v>
+      </c>
+      <c r="E7" s="24">
+        <v>25806000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="24">
+        <v>16</v>
+      </c>
+      <c r="I7" s="24">
+        <v>842763</v>
+      </c>
+      <c r="J7" s="24">
+        <v>843437</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2870</v>
+      </c>
+      <c r="L7">
+        <v>20681</v>
+      </c>
+      <c r="M7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2872</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>2873</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2874</v>
+      </c>
+      <c r="U7" t="s">
+        <v>2875</v>
+      </c>
+      <c r="V7">
+        <v>2009</v>
+      </c>
+      <c r="W7" t="s">
+        <v>2876</v>
+      </c>
+      <c r="X7" s="27" t="s">
+        <v>2877</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>2878</v>
+      </c>
+      <c r="Z7">
+        <v>19638316</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C8" s="24">
+        <v>17</v>
+      </c>
+      <c r="D8" s="24">
+        <v>25805432</v>
+      </c>
+      <c r="E8" s="24">
+        <v>25806000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="24">
+        <v>16</v>
+      </c>
+      <c r="I8" s="24">
+        <v>842763</v>
+      </c>
+      <c r="J8" s="24">
+        <v>843437</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2870</v>
+      </c>
+      <c r="L8">
+        <v>20681</v>
+      </c>
+      <c r="M8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2880</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2872</v>
+      </c>
+      <c r="S8" s="26" t="s">
+        <v>2873</v>
+      </c>
+      <c r="T8" t="s">
+        <v>2874</v>
+      </c>
+      <c r="U8" t="s">
+        <v>2875</v>
+      </c>
+      <c r="V8">
+        <v>2009</v>
+      </c>
+      <c r="W8" t="s">
+        <v>2876</v>
+      </c>
+      <c r="X8" s="27" t="s">
+        <v>2877</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>2878</v>
+      </c>
+      <c r="Z8">
+        <v>19638316</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C9" s="24">
+        <v>17</v>
+      </c>
+      <c r="D9" s="24">
+        <v>25805432</v>
+      </c>
+      <c r="E9" s="24">
+        <v>25806000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="24">
+        <v>16</v>
+      </c>
+      <c r="I9" s="24">
+        <v>842763</v>
+      </c>
+      <c r="J9" s="24">
+        <v>843437</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2870</v>
+      </c>
+      <c r="L9">
+        <v>20681</v>
+      </c>
+      <c r="M9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2881</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2872</v>
+      </c>
+      <c r="S9" s="26" t="s">
+        <v>2873</v>
+      </c>
+      <c r="T9" t="s">
+        <v>2874</v>
+      </c>
+      <c r="U9" t="s">
+        <v>2875</v>
+      </c>
+      <c r="V9">
+        <v>2009</v>
+      </c>
+      <c r="W9" t="s">
+        <v>2876</v>
+      </c>
+      <c r="X9" s="27" t="s">
+        <v>2877</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>2878</v>
+      </c>
+      <c r="Z9">
+        <v>19638316</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C10" s="24">
+        <v>17</v>
+      </c>
+      <c r="D10" s="24">
+        <v>25761447</v>
+      </c>
+      <c r="E10" s="24">
+        <v>25761582</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="24">
+        <v>16</v>
+      </c>
+      <c r="I10" s="24">
+        <v>899223</v>
+      </c>
+      <c r="J10" s="24">
+        <v>899363</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2870</v>
+      </c>
+      <c r="L10">
+        <v>20681</v>
+      </c>
+      <c r="M10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2871</v>
+      </c>
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2872</v>
+      </c>
+      <c r="S10" s="26" t="s">
+        <v>2873</v>
+      </c>
+      <c r="T10" t="s">
+        <v>2874</v>
+      </c>
+      <c r="U10" t="s">
+        <v>2875</v>
+      </c>
+      <c r="V10">
+        <v>2009</v>
+      </c>
+      <c r="W10" t="s">
+        <v>2876</v>
+      </c>
+      <c r="X10" s="27" t="s">
+        <v>2877</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>2878</v>
+      </c>
+      <c r="Z10">
+        <v>19638316</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C11" s="24">
+        <v>17</v>
+      </c>
+      <c r="D11" s="24">
+        <v>25761447</v>
+      </c>
+      <c r="E11" s="24">
+        <v>25761582</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="24">
+        <v>16</v>
+      </c>
+      <c r="I11" s="24">
+        <v>899223</v>
+      </c>
+      <c r="J11" s="24">
+        <v>899363</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2870</v>
+      </c>
+      <c r="L11">
+        <v>20681</v>
+      </c>
+      <c r="M11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2482</v>
+      </c>
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2872</v>
+      </c>
+      <c r="S11" s="26" t="s">
+        <v>2873</v>
+      </c>
+      <c r="T11" t="s">
+        <v>2874</v>
+      </c>
+      <c r="U11" t="s">
+        <v>2875</v>
+      </c>
+      <c r="V11">
+        <v>2009</v>
+      </c>
+      <c r="W11" t="s">
+        <v>2876</v>
+      </c>
+      <c r="X11" s="27" t="s">
+        <v>2877</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>2878</v>
+      </c>
+      <c r="Z11">
+        <v>19638316</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C12" s="24">
+        <v>17</v>
+      </c>
+      <c r="D12" s="24">
+        <v>25761447</v>
+      </c>
+      <c r="E12" s="24">
+        <v>25761582</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="24">
+        <v>16</v>
+      </c>
+      <c r="I12" s="24">
+        <v>899223</v>
+      </c>
+      <c r="J12" s="24">
+        <v>899363</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2870</v>
+      </c>
+      <c r="L12">
+        <v>20681</v>
+      </c>
+      <c r="M12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2880</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2872</v>
+      </c>
+      <c r="S12" s="26" t="s">
+        <v>2873</v>
+      </c>
+      <c r="T12" t="s">
+        <v>2874</v>
+      </c>
+      <c r="U12" t="s">
+        <v>2875</v>
+      </c>
+      <c r="V12">
+        <v>2009</v>
+      </c>
+      <c r="W12" t="s">
+        <v>2876</v>
+      </c>
+      <c r="X12" s="27" t="s">
+        <v>2877</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>2878</v>
+      </c>
+      <c r="Z12">
+        <v>19638316</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C13" s="24">
+        <v>17</v>
+      </c>
+      <c r="D13" s="24">
+        <v>25761447</v>
+      </c>
+      <c r="E13" s="24">
+        <v>25761582</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="24">
+        <v>16</v>
+      </c>
+      <c r="I13" s="24">
+        <v>899223</v>
+      </c>
+      <c r="J13" s="24">
+        <v>899363</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2870</v>
+      </c>
+      <c r="L13">
+        <v>20681</v>
+      </c>
+      <c r="M13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2879</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" t="s">
+        <v>2872</v>
+      </c>
+      <c r="S13" s="26" t="s">
+        <v>2873</v>
+      </c>
+      <c r="T13" t="s">
+        <v>2874</v>
+      </c>
+      <c r="U13" t="s">
+        <v>2875</v>
+      </c>
+      <c r="V13">
+        <v>2009</v>
+      </c>
+      <c r="W13" t="s">
+        <v>2876</v>
+      </c>
+      <c r="X13" s="27" t="s">
+        <v>2877</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>2878</v>
+      </c>
+      <c r="Z13">
+        <v>19638316</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C14" s="24">
+        <v>17</v>
+      </c>
+      <c r="D14" s="24">
+        <v>25702861</v>
+      </c>
+      <c r="E14" s="24">
+        <v>25702961</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="24">
+        <v>16</v>
+      </c>
+      <c r="I14" s="24">
+        <v>986865</v>
+      </c>
+      <c r="J14" s="24">
+        <v>986958</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2870</v>
+      </c>
+      <c r="L14">
+        <v>20681</v>
+      </c>
+      <c r="M14" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2884</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2872</v>
+      </c>
+      <c r="S14" s="26" t="s">
+        <v>2873</v>
+      </c>
+      <c r="T14" t="s">
+        <v>2874</v>
+      </c>
+      <c r="U14" t="s">
+        <v>2875</v>
+      </c>
+      <c r="V14">
+        <v>2009</v>
+      </c>
+      <c r="W14" t="s">
+        <v>2876</v>
+      </c>
+      <c r="X14" s="27" t="s">
+        <v>2877</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>2878</v>
+      </c>
+      <c r="Z14">
+        <v>19638316</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C15" s="24">
+        <v>3</v>
+      </c>
+      <c r="D15" s="25">
+        <v>186840010</v>
+      </c>
+      <c r="E15" s="24">
+        <v>186840157</v>
+      </c>
+      <c r="F15" t="s">
+        <v>438</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2886</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" t="s">
+        <v>2887</v>
+      </c>
+      <c r="L15">
+        <v>9370</v>
+      </c>
+      <c r="M15" t="s">
+        <v>839</v>
+      </c>
+      <c r="N15" t="s">
+        <v>2888</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2889</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R15" t="s">
+        <v>2890</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>2364</v>
+      </c>
+      <c r="T15" t="s">
+        <v>2891</v>
+      </c>
+      <c r="U15" t="s">
+        <v>2892</v>
+      </c>
+      <c r="V15">
+        <v>2009</v>
+      </c>
+      <c r="W15" t="s">
+        <v>2893</v>
+      </c>
+      <c r="X15" s="27" t="s">
+        <v>2894</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>2895</v>
+      </c>
+      <c r="Z15">
+        <v>18931025</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.5">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24">
+        <v>206754602</v>
+      </c>
+      <c r="E16" s="24">
+        <v>206757602</v>
+      </c>
+      <c r="F16" t="s">
+        <v>438</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2886</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" t="s">
+        <v>2897</v>
+      </c>
+      <c r="L16">
+        <v>3586</v>
+      </c>
+      <c r="M16" t="s">
+        <v>184</v>
+      </c>
+      <c r="N16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>2899</v>
+      </c>
+      <c r="S16" s="26" t="s">
+        <v>2900</v>
+      </c>
+      <c r="T16" t="s">
+        <v>2901</v>
+      </c>
+      <c r="U16" t="s">
+        <v>2902</v>
+      </c>
+      <c r="V16">
+        <v>2009</v>
+      </c>
+      <c r="W16" t="s">
+        <v>243</v>
+      </c>
+      <c r="X16" s="27" t="s">
+        <v>2903</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>2904</v>
+      </c>
+      <c r="Z16">
+        <v>18962896</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C17" s="24">
+        <v>16</v>
+      </c>
+      <c r="D17" s="24">
+        <v>67513571</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="24">
+        <v>16</v>
+      </c>
+      <c r="I17" s="24">
+        <v>67479668</v>
+      </c>
+      <c r="J17" s="24">
+        <v>67479871</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2908</v>
+      </c>
+      <c r="L17">
+        <v>181</v>
+      </c>
+      <c r="M17" t="s">
+        <v>117</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2909</v>
+      </c>
+      <c r="P17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2910</v>
+      </c>
+      <c r="S17" s="26" t="s">
+        <v>2364</v>
+      </c>
+      <c r="T17" t="s">
+        <v>2911</v>
+      </c>
+      <c r="U17" t="s">
+        <v>2912</v>
+      </c>
+      <c r="V17">
+        <v>2009</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1345</v>
+      </c>
+      <c r="X17" s="27" t="s">
+        <v>2913</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>2914</v>
+      </c>
+      <c r="Z17">
+        <v>19285986</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C18" s="24">
+        <v>16</v>
+      </c>
+      <c r="D18" s="24">
+        <v>67513340</v>
+      </c>
+      <c r="E18" s="24">
+        <v>67513571</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="24">
+        <v>16</v>
+      </c>
+      <c r="I18" s="24">
+        <v>67479437</v>
+      </c>
+      <c r="J18" s="24">
+        <v>67479668</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2908</v>
+      </c>
+      <c r="L18">
+        <v>181</v>
+      </c>
+      <c r="M18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2909</v>
+      </c>
+      <c r="P18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2910</v>
+      </c>
+      <c r="S18" s="26" t="s">
+        <v>2364</v>
+      </c>
+      <c r="T18" t="s">
+        <v>2911</v>
+      </c>
+      <c r="U18" t="s">
+        <v>2912</v>
+      </c>
+      <c r="V18">
+        <v>2009</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1345</v>
+      </c>
+      <c r="X18" s="27" t="s">
+        <v>2913</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>2914</v>
+      </c>
+      <c r="Z18">
+        <v>19285986</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C19" s="24">
+        <v>8</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="24">
+        <v>8</v>
+      </c>
+      <c r="I19" s="24">
+        <v>11628794</v>
+      </c>
+      <c r="J19" s="24">
+        <v>11629011</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2324</v>
+      </c>
+      <c r="L19">
+        <v>2626</v>
+      </c>
+      <c r="M19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2919</v>
+      </c>
+      <c r="O19" t="s">
+        <v>2920</v>
+      </c>
+      <c r="P19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>99</v>
+      </c>
+      <c r="R19" t="s">
+        <v>2921</v>
+      </c>
+      <c r="S19" s="24">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s">
+        <v>2922</v>
+      </c>
+      <c r="U19" t="s">
+        <v>2923</v>
+      </c>
+      <c r="V19">
+        <v>2009</v>
+      </c>
+      <c r="W19" t="s">
+        <v>2924</v>
+      </c>
+      <c r="X19" t="s">
+        <v>2925</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>2926</v>
+      </c>
+      <c r="Z19">
+        <v>19777593</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C20" s="24">
+        <v>8</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="24">
+        <v>8</v>
+      </c>
+      <c r="I20" s="24">
+        <v>11628794</v>
+      </c>
+      <c r="J20" s="24">
+        <v>11629011</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2324</v>
+      </c>
+      <c r="L20">
+        <v>2626</v>
+      </c>
+      <c r="M20" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2919</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2927</v>
+      </c>
+      <c r="P20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>99</v>
+      </c>
+      <c r="R20" t="s">
+        <v>2921</v>
+      </c>
+      <c r="S20" s="24">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s">
+        <v>2922</v>
+      </c>
+      <c r="U20" t="s">
+        <v>2923</v>
+      </c>
+      <c r="V20">
+        <v>2009</v>
+      </c>
+      <c r="W20" t="s">
+        <v>2924</v>
+      </c>
+      <c r="X20" t="s">
+        <v>2925</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>2926</v>
+      </c>
+      <c r="Z20">
+        <v>19777593</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C21" s="24">
+        <v>8</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="24">
+        <v>8</v>
+      </c>
+      <c r="I21" s="24">
+        <v>11628794</v>
+      </c>
+      <c r="J21" s="24">
+        <v>11629011</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2324</v>
+      </c>
+      <c r="L21">
+        <v>2626</v>
+      </c>
+      <c r="M21" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" t="s">
+        <v>2919</v>
+      </c>
+      <c r="O21" t="s">
+        <v>2928</v>
+      </c>
+      <c r="P21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" t="s">
+        <v>2921</v>
+      </c>
+      <c r="S21" s="24">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s">
+        <v>2922</v>
+      </c>
+      <c r="U21" t="s">
+        <v>2923</v>
+      </c>
+      <c r="V21">
+        <v>2009</v>
+      </c>
+      <c r="W21" t="s">
+        <v>2924</v>
+      </c>
+      <c r="X21" t="s">
+        <v>2925</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>2926</v>
+      </c>
+      <c r="Z21">
+        <v>19777593</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1C6766-4182-4385-BDEC-04517A1A0994}">
+  <dimension ref="A1:AC22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="8.3125" style="30"/>
+    <col min="3" max="3" width="8.3125" style="31"/>
+    <col min="4" max="4" width="15.9375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="16.3125" style="31" customWidth="1"/>
+    <col min="6" max="7" width="8.3125" style="30"/>
+    <col min="8" max="8" width="8.3125" style="31"/>
+    <col min="9" max="9" width="11.8125" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.8125" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="8.3125" style="30"/>
+    <col min="19" max="19" width="8.3125" style="31"/>
+    <col min="20" max="28" width="8.3125" style="30"/>
+    <col min="29" max="29" width="8.3125" style="30" customWidth="1"/>
+    <col min="30" max="16384" width="8.3125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="50" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C2" s="31">
+        <v>15</v>
+      </c>
+      <c r="D2" s="31">
+        <v>79020080</v>
+      </c>
+      <c r="E2" s="31">
+        <v>79020899</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="41">
+        <v>22</v>
+      </c>
+      <c r="I2" s="31">
+        <v>38016246</v>
+      </c>
+      <c r="J2" s="31">
+        <v>38017035</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L2" s="30">
+        <v>20665</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>2871</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>2982</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>2980</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>2979</v>
+      </c>
+      <c r="V2" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>2978</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>18773071</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC2" s="39"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C3" s="31">
+        <v>15</v>
+      </c>
+      <c r="D3" s="31">
+        <v>79020080</v>
+      </c>
+      <c r="E3" s="31">
+        <v>79020899</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="41">
+        <v>22</v>
+      </c>
+      <c r="I3" s="31">
+        <v>38016246</v>
+      </c>
+      <c r="J3" s="31">
+        <v>38017035</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L3" s="30">
+        <v>20665</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>2879</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>2982</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>2980</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>2979</v>
+      </c>
+      <c r="V3" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>2978</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>18773071</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC3" s="39"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C4" s="31">
+        <v>15</v>
+      </c>
+      <c r="D4" s="31">
+        <v>79020080</v>
+      </c>
+      <c r="E4" s="31">
+        <v>79020899</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="41">
+        <v>22</v>
+      </c>
+      <c r="I4" s="31">
+        <v>38016246</v>
+      </c>
+      <c r="J4" s="31">
+        <v>38017035</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L4" s="30">
+        <v>20665</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>2986</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>2982</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>2980</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>2979</v>
+      </c>
+      <c r="V4" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>2978</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>18773071</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC4" s="39"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C5" s="31">
+        <v>15</v>
+      </c>
+      <c r="D5" s="31">
+        <v>79020080</v>
+      </c>
+      <c r="E5" s="31">
+        <v>79020899</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="41">
+        <v>22</v>
+      </c>
+      <c r="I5" s="31">
+        <v>38016246</v>
+      </c>
+      <c r="J5" s="31">
+        <v>38017035</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L5" s="30">
+        <v>20665</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>2990</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>2982</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>2980</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>2979</v>
+      </c>
+      <c r="V5" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>2978</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>18773071</v>
+      </c>
+      <c r="AA5" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC5" s="39"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C6" s="31">
+        <v>15</v>
+      </c>
+      <c r="D6" s="31">
+        <v>79020080</v>
+      </c>
+      <c r="E6" s="31">
+        <v>79020899</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="41">
+        <v>22</v>
+      </c>
+      <c r="I6" s="31">
+        <v>38016246</v>
+      </c>
+      <c r="J6" s="31">
+        <v>38017035</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L6" s="30">
+        <v>20665</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>2988</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>2982</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>2980</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>2979</v>
+      </c>
+      <c r="V6" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W6" s="30" t="s">
+        <v>2978</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Y6" s="30" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>18773071</v>
+      </c>
+      <c r="AA6" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC6" s="39"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C7" s="31">
+        <v>15</v>
+      </c>
+      <c r="D7" s="31">
+        <v>79040107</v>
+      </c>
+      <c r="E7" s="31">
+        <v>79040404</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="31">
+        <v>22</v>
+      </c>
+      <c r="I7" s="31">
+        <v>38038554</v>
+      </c>
+      <c r="J7" s="31">
+        <v>38038834</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L7" s="30">
+        <v>20665</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>2871</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>2982</v>
+      </c>
+      <c r="S7" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>2980</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>2979</v>
+      </c>
+      <c r="V7" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>2978</v>
+      </c>
+      <c r="X7" s="33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Y7" s="30" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>18773071</v>
+      </c>
+      <c r="AA7" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC7" s="39"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C8" s="31">
+        <v>15</v>
+      </c>
+      <c r="D8" s="31">
+        <v>79040107</v>
+      </c>
+      <c r="E8" s="31">
+        <v>79040404</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="31">
+        <v>22</v>
+      </c>
+      <c r="I8" s="31">
+        <v>38038554</v>
+      </c>
+      <c r="J8" s="31">
+        <v>38038834</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L8" s="30">
+        <v>20665</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>2879</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>2982</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>2980</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>2979</v>
+      </c>
+      <c r="V8" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W8" s="30" t="s">
+        <v>2978</v>
+      </c>
+      <c r="X8" s="33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Y8" s="30" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>18773071</v>
+      </c>
+      <c r="AA8" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC8" s="39"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C9" s="31">
+        <v>15</v>
+      </c>
+      <c r="D9" s="31">
+        <v>79040107</v>
+      </c>
+      <c r="E9" s="31">
+        <v>79040404</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="31">
+        <v>22</v>
+      </c>
+      <c r="I9" s="31">
+        <v>38038554</v>
+      </c>
+      <c r="J9" s="31">
+        <v>38038834</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L9" s="30">
+        <v>20665</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>2482</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>2982</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>2980</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>2979</v>
+      </c>
+      <c r="V9" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W9" s="30" t="s">
+        <v>2978</v>
+      </c>
+      <c r="X9" s="33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Y9" s="30" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>18773071</v>
+      </c>
+      <c r="AA9" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC9" s="39"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C10" s="31">
+        <v>15</v>
+      </c>
+      <c r="D10" s="31">
+        <v>79040107</v>
+      </c>
+      <c r="E10" s="31">
+        <v>79040404</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="31">
+        <v>22</v>
+      </c>
+      <c r="I10" s="31">
+        <v>38038554</v>
+      </c>
+      <c r="J10" s="31">
+        <v>38038834</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L10" s="30">
+        <v>20665</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>2987</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>2982</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>2980</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>2979</v>
+      </c>
+      <c r="V10" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W10" s="30" t="s">
+        <v>2978</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Y10" s="30" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>18773071</v>
+      </c>
+      <c r="AA10" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC10" s="39"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C11" s="31">
+        <v>15</v>
+      </c>
+      <c r="D11" s="31">
+        <v>79040107</v>
+      </c>
+      <c r="E11" s="31">
+        <v>79040404</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="31">
+        <v>22</v>
+      </c>
+      <c r="I11" s="31">
+        <v>38038554</v>
+      </c>
+      <c r="J11" s="31">
+        <v>38038834</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L11" s="30">
+        <v>20665</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>2986</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>2982</v>
+      </c>
+      <c r="S11" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>2980</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>2979</v>
+      </c>
+      <c r="V11" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W11" s="30" t="s">
+        <v>2978</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Y11" s="30" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Z11" s="30">
+        <v>18773071</v>
+      </c>
+      <c r="AA11" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC11" s="39"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C12" s="31">
+        <v>15</v>
+      </c>
+      <c r="D12" s="31">
+        <v>79040107</v>
+      </c>
+      <c r="E12" s="31">
+        <v>79040404</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="31">
+        <v>22</v>
+      </c>
+      <c r="I12" s="31">
+        <v>38038554</v>
+      </c>
+      <c r="J12" s="31">
+        <v>38038834</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L12" s="30">
+        <v>20665</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>2983</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>2982</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>2980</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>2979</v>
+      </c>
+      <c r="V12" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W12" s="30" t="s">
+        <v>2978</v>
+      </c>
+      <c r="X12" s="33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="Y12" s="30" t="s">
+        <v>2976</v>
+      </c>
+      <c r="Z12" s="30">
+        <v>18773071</v>
+      </c>
+      <c r="AA12" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC12" s="39"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C13" s="31">
+        <v>14</v>
+      </c>
+      <c r="D13" s="31">
+        <v>78620360</v>
+      </c>
+      <c r="E13" s="31">
+        <v>78622494</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>2386</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="31">
+        <v>13</v>
+      </c>
+      <c r="I13" s="31">
+        <v>42474710</v>
+      </c>
+      <c r="J13" s="31">
+        <v>42478426</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>2937</v>
+      </c>
+      <c r="L13" s="30">
+        <v>8600</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>2536</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>2536</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>2936</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>2973</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>2972</v>
+      </c>
+      <c r="S13" s="38" t="s">
+        <v>2971</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>2970</v>
+      </c>
+      <c r="U13" s="30" t="s">
+        <v>2969</v>
+      </c>
+      <c r="V13" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W13" s="30" t="s">
+        <v>2968</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>2967</v>
+      </c>
+      <c r="Y13" s="30" t="s">
+        <v>2966</v>
+      </c>
+      <c r="Z13" s="30">
+        <v>17932217</v>
+      </c>
+      <c r="AA13" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C14" s="31">
+        <v>14</v>
+      </c>
+      <c r="D14" s="31">
+        <v>78620360</v>
+      </c>
+      <c r="E14" s="31">
+        <v>78622494</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>2386</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="31">
+        <v>13</v>
+      </c>
+      <c r="I14" s="31">
+        <v>42474710</v>
+      </c>
+      <c r="J14" s="31">
+        <v>42478426</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>2937</v>
+      </c>
+      <c r="L14" s="30">
+        <v>8600</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>1468</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>1468</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>2975</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>2973</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>2972</v>
+      </c>
+      <c r="S14" s="38" t="s">
+        <v>2971</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>2970</v>
+      </c>
+      <c r="U14" s="30" t="s">
+        <v>2969</v>
+      </c>
+      <c r="V14" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W14" s="30" t="s">
+        <v>2968</v>
+      </c>
+      <c r="X14" s="33" t="s">
+        <v>2967</v>
+      </c>
+      <c r="Y14" s="30" t="s">
+        <v>2966</v>
+      </c>
+      <c r="Z14" s="30">
+        <v>17932217</v>
+      </c>
+      <c r="AA14" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C15" s="31">
+        <v>14</v>
+      </c>
+      <c r="D15" s="31">
+        <v>78620360</v>
+      </c>
+      <c r="E15" s="31">
+        <v>78622494</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>2386</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="31">
+        <v>13</v>
+      </c>
+      <c r="I15" s="31">
+        <v>42474710</v>
+      </c>
+      <c r="J15" s="31">
+        <v>42478426</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>2937</v>
+      </c>
+      <c r="L15" s="30">
+        <v>8600</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O15" s="37"/>
+      <c r="P15" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>2973</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>2972</v>
+      </c>
+      <c r="S15" s="38" t="s">
+        <v>2971</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>2970</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>2969</v>
+      </c>
+      <c r="V15" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W15" s="30" t="s">
+        <v>2968</v>
+      </c>
+      <c r="X15" s="33" t="s">
+        <v>2967</v>
+      </c>
+      <c r="Y15" s="30" t="s">
+        <v>2966</v>
+      </c>
+      <c r="Z15" s="30">
+        <v>17932217</v>
+      </c>
+      <c r="AA15" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A16" s="30">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" s="31">
+        <v>3</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>2965</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>2964</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="31">
+        <v>3</v>
+      </c>
+      <c r="I16" s="31">
+        <v>186840060</v>
+      </c>
+      <c r="J16" s="31">
+        <v>186840083</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>2887</v>
+      </c>
+      <c r="L16" s="30">
+        <v>9370</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>2888</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>2889</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R16" s="30" t="s">
+        <v>2959</v>
+      </c>
+      <c r="S16" s="31">
+        <v>3</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>2891</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>2892</v>
+      </c>
+      <c r="V16" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W16" s="30" t="s">
+        <v>2893</v>
+      </c>
+      <c r="X16" s="33" t="s">
+        <v>2963</v>
+      </c>
+      <c r="Y16" s="30" t="s">
+        <v>2895</v>
+      </c>
+      <c r="Z16" s="30">
+        <v>18931025</v>
+      </c>
+      <c r="AA16" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C17" s="31">
+        <v>3</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>2961</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>2960</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="31">
+        <v>3</v>
+      </c>
+      <c r="I17" s="31">
+        <v>186840143</v>
+      </c>
+      <c r="J17" s="31">
+        <v>186840157</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>2887</v>
+      </c>
+      <c r="L17" s="30">
+        <v>9370</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>2888</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>2889</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>2959</v>
+      </c>
+      <c r="S17" s="31">
+        <v>3</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>2891</v>
+      </c>
+      <c r="U17" s="30" t="s">
+        <v>2892</v>
+      </c>
+      <c r="V17" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W17" s="30" t="s">
+        <v>2893</v>
+      </c>
+      <c r="X17" s="33" t="s">
+        <v>2958</v>
+      </c>
+      <c r="Y17" s="30" t="s">
+        <v>2957</v>
+      </c>
+      <c r="Z17" s="30">
+        <v>18931026</v>
+      </c>
+      <c r="AA17" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C18" s="31">
+        <v>15</v>
+      </c>
+      <c r="D18" s="31">
+        <v>61466127</v>
+      </c>
+      <c r="E18" s="31">
+        <v>61467960</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="31">
+        <v>15</v>
+      </c>
+      <c r="I18" s="31">
+        <v>63679074</v>
+      </c>
+      <c r="J18" s="31">
+        <v>63680907</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>2955</v>
+      </c>
+      <c r="L18" s="30">
+        <v>771</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>2954</v>
+      </c>
+      <c r="O18" s="37"/>
+      <c r="P18" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R18" s="30" t="s">
+        <v>2953</v>
+      </c>
+      <c r="S18" s="31">
+        <v>7</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>2952</v>
+      </c>
+      <c r="U18" s="30" t="s">
+        <v>2951</v>
+      </c>
+      <c r="V18" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W18" s="30" t="s">
+        <v>2950</v>
+      </c>
+      <c r="X18" s="33" t="s">
+        <v>2949</v>
+      </c>
+      <c r="Y18" s="30" t="s">
+        <v>2948</v>
+      </c>
+      <c r="Z18" s="30">
+        <v>18451179</v>
+      </c>
+      <c r="AA18" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C19" s="31">
+        <v>1</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>2945</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="31">
+        <v>1</v>
+      </c>
+      <c r="I19" s="36">
+        <v>206784346</v>
+      </c>
+      <c r="J19" s="36">
+        <v>206784774</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L19" s="30">
+        <v>3586</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>2947</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R19" s="30" t="s">
+        <v>2941</v>
+      </c>
+      <c r="S19" s="34" t="s">
+        <v>2900</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>2901</v>
+      </c>
+      <c r="U19" s="30" t="s">
+        <v>2940</v>
+      </c>
+      <c r="V19" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W19" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="X19" s="33" t="s">
+        <v>2939</v>
+      </c>
+      <c r="Y19" s="30" t="s">
+        <v>2904</v>
+      </c>
+      <c r="Z19" s="30">
+        <v>18962896</v>
+      </c>
+      <c r="AA19" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A20" s="30">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>2945</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="31">
+        <v>1</v>
+      </c>
+      <c r="I20" s="36">
+        <v>206784346</v>
+      </c>
+      <c r="J20" s="36">
+        <v>206784774</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L20" s="30">
+        <v>3586</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>2942</v>
+      </c>
+      <c r="P20" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q20" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>2941</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>2900</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>2901</v>
+      </c>
+      <c r="U20" s="30" t="s">
+        <v>2940</v>
+      </c>
+      <c r="V20" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W20" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="X20" s="33" t="s">
+        <v>2939</v>
+      </c>
+      <c r="Y20" s="30" t="s">
+        <v>2904</v>
+      </c>
+      <c r="Z20" s="30">
+        <v>18962896</v>
+      </c>
+      <c r="AA20" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A21" s="30">
+        <v>20</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C21" s="31">
+        <v>13</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="K21" s="30" t="s">
+        <v>2937</v>
+      </c>
+      <c r="L21" s="30">
+        <v>8600</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>2536</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>2536</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>2936</v>
+      </c>
+      <c r="P21" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>2935</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>2934</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>2933</v>
+      </c>
+      <c r="U21" s="30" t="s">
+        <v>2932</v>
+      </c>
+      <c r="V21" s="30">
+        <v>2008</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>1787</v>
+      </c>
+      <c r="X21" s="33" t="s">
+        <v>2931</v>
+      </c>
+      <c r="Y21" s="30" t="s">
+        <v>2930</v>
+      </c>
+      <c r="Z21" s="30">
+        <v>18202151</v>
+      </c>
+      <c r="AA21" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC21" s="30" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="B22" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB257904-1C18-4B67-B59B-EA306B283402}">
+  <dimension ref="A1:AC10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="8.3125" style="30"/>
+    <col min="3" max="5" width="8.3125" style="31"/>
+    <col min="6" max="7" width="8.3125" style="30"/>
+    <col min="8" max="8" width="8.3125" style="31"/>
+    <col min="9" max="10" width="11.8125" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.3125" style="30"/>
+    <col min="14" max="14" width="12.4375" style="30" customWidth="1"/>
+    <col min="15" max="18" width="8.3125" style="30"/>
+    <col min="19" max="19" width="8.3125" style="31"/>
+    <col min="20" max="16384" width="8.3125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="50" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C2" s="31">
+        <v>7</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>2992</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>2993</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="31">
+        <v>11</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>2994</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>2995</v>
+      </c>
+      <c r="L2" s="30">
+        <v>7299</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>2996</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>2997</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>2998</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>2999</v>
+      </c>
+      <c r="V2" s="30">
+        <v>2007</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>3000</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>3001</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>17196956</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C3" s="31">
+        <v>17</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="31">
+        <v>17</v>
+      </c>
+      <c r="I3" s="31">
+        <v>71011694</v>
+      </c>
+      <c r="J3" s="31">
+        <v>71013769</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>3005</v>
+      </c>
+      <c r="L3" s="30">
+        <v>6662</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>3006</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>3007</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>3008</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>3009</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>3010</v>
+      </c>
+      <c r="V3" s="30">
+        <v>2007</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>3011</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>3012</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>17409199</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C4" s="31">
+        <v>17</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="31">
+        <v>17</v>
+      </c>
+      <c r="I4" s="31">
+        <v>71011694</v>
+      </c>
+      <c r="J4" s="31">
+        <v>71013769</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>3005</v>
+      </c>
+      <c r="L4" s="30">
+        <v>6662</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>2543</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>3006</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>3007</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>3008</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>3009</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>3010</v>
+      </c>
+      <c r="V4" s="30">
+        <v>2007</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>3011</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>3012</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>17409199</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C5" s="31">
+        <v>14</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>3014</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>3015</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>3016</v>
+      </c>
+      <c r="H5" s="34">
+        <v>14</v>
+      </c>
+      <c r="I5" s="34">
+        <v>21703938</v>
+      </c>
+      <c r="J5" s="34">
+        <v>21704170</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>3017</v>
+      </c>
+      <c r="L5" s="30">
+        <v>79501</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>1083</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>3018</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>3019</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>2971</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>3020</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>3021</v>
+      </c>
+      <c r="V5" s="30">
+        <v>2007</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>3022</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>3023</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>3024</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>18077433</v>
+      </c>
+      <c r="AA5" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C6" s="31">
+        <v>14</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>3014</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>3015</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>3016</v>
+      </c>
+      <c r="H6" s="34">
+        <v>14</v>
+      </c>
+      <c r="I6" s="34">
+        <v>21703938</v>
+      </c>
+      <c r="J6" s="34">
+        <v>21704170</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>3017</v>
+      </c>
+      <c r="L6" s="30">
+        <v>79501</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>1083</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>3018</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>3025</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>3008</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>3026</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>3027</v>
+      </c>
+      <c r="V6" s="30">
+        <v>2007</v>
+      </c>
+      <c r="W6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>3028</v>
+      </c>
+      <c r="Y6" s="30" t="s">
+        <v>3029</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>17662950</v>
+      </c>
+      <c r="AA6" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C7" s="31">
+        <v>2</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>3031</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>3032</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="31">
+        <v>2</v>
+      </c>
+      <c r="I7" s="31">
+        <v>25177373</v>
+      </c>
+      <c r="J7" s="31">
+        <v>25177542</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>3033</v>
+      </c>
+      <c r="L7" s="30">
+        <v>5443</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>1180</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>3034</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>3018</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>3035</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>2900</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>3036</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>3037</v>
+      </c>
+      <c r="V7" s="30">
+        <v>2007</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>3038</v>
+      </c>
+      <c r="X7" s="33" t="s">
+        <v>3039</v>
+      </c>
+      <c r="Y7" s="30" t="s">
+        <v>3040</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>17922573</v>
+      </c>
+      <c r="AA7" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C8" s="31">
+        <v>2</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>3031</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3032</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="31">
+        <v>2</v>
+      </c>
+      <c r="I8" s="31">
+        <v>25177373</v>
+      </c>
+      <c r="J8" s="31">
+        <v>25177542</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>3033</v>
+      </c>
+      <c r="L8" s="30">
+        <v>5443</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>854</v>
+      </c>
+      <c r="O8" s="37"/>
+      <c r="P8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>3018</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>3035</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>2900</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>3036</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>3037</v>
+      </c>
+      <c r="V8" s="30">
+        <v>2007</v>
+      </c>
+      <c r="W8" s="30" t="s">
+        <v>3038</v>
+      </c>
+      <c r="X8" s="33" t="s">
+        <v>3039</v>
+      </c>
+      <c r="Y8" s="30" t="s">
+        <v>3040</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>17922573</v>
+      </c>
+      <c r="AA8" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C9" s="31">
+        <v>11</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>3043</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="31">
+        <v>5</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="30" t="s">
+        <v>3044</v>
+      </c>
+      <c r="L9" s="30">
+        <v>3565</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>3045</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>3046</v>
+      </c>
+      <c r="S9" s="38" t="s">
+        <v>3047</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>3048</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>3049</v>
+      </c>
+      <c r="V9" s="30">
+        <v>2007</v>
+      </c>
+      <c r="W9" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="X9" s="33" t="s">
+        <v>3050</v>
+      </c>
+      <c r="Y9" s="30" t="s">
+        <v>3051</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>17908791</v>
+      </c>
+      <c r="AA9" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC9" s="30" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C10" s="31">
+        <v>11</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>3054</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>3055</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="31">
+        <v>5</v>
+      </c>
+      <c r="I10" s="36">
+        <v>133202337</v>
+      </c>
+      <c r="J10" s="36">
+        <v>133202647</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>3044</v>
+      </c>
+      <c r="L10" s="30">
+        <v>3565</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>3056</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>3057</v>
+      </c>
+      <c r="S10" s="31">
+        <v>8</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>3048</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>3049</v>
+      </c>
+      <c r="V10" s="30">
+        <v>2007</v>
+      </c>
+      <c r="W10" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>3050</v>
+      </c>
+      <c r="Y10" s="30" t="s">
+        <v>3051</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>17908791</v>
+      </c>
+      <c r="AA10" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6E7A10-B273-4F3F-8F91-333F076EA4E6}">
+  <dimension ref="A1:AC43"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="8.3125" style="30"/>
+    <col min="3" max="3" width="8.3125" style="31"/>
+    <col min="4" max="5" width="9.25" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.3125" style="30"/>
+    <col min="8" max="8" width="8.3125" style="31"/>
+    <col min="9" max="9" width="9.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.0625" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="8.3125" style="30"/>
+    <col min="19" max="19" width="8.3125" style="31"/>
+    <col min="20" max="25" width="8.3125" style="30"/>
+    <col min="26" max="26" width="9.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.3125" style="30"/>
+    <col min="29" max="29" width="9" style="30" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.3125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="51" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C2" s="31">
+        <v>14</v>
+      </c>
+      <c r="D2" s="31">
+        <v>78620360</v>
+      </c>
+      <c r="E2" s="31">
+        <v>78622494</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2386</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="31">
+        <v>13</v>
+      </c>
+      <c r="I2" s="31">
+        <v>42474710</v>
+      </c>
+      <c r="J2" s="31">
+        <v>42478426</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>3059</v>
+      </c>
+      <c r="L2" s="30">
+        <v>8600</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>2536</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>2536</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>2936</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>3060</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>2336</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>3061</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>3062</v>
+      </c>
+      <c r="V2" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>3063</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>3064</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>16914731</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC2" s="39"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C3" s="34">
+        <v>17</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E3" s="34">
+        <v>70089284</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="31">
+        <v>17</v>
+      </c>
+      <c r="I3" s="31">
+        <v>72092646</v>
+      </c>
+      <c r="J3" s="31">
+        <v>72093143</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>3067</v>
+      </c>
+      <c r="L3" s="30">
+        <v>6662</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>3068</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>3069</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>3070</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>3071</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>3072</v>
+      </c>
+      <c r="V3" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>3073</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>3074</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>16458883</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C4" s="34">
+        <v>17</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E4" s="34">
+        <v>70089284</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="31">
+        <v>17</v>
+      </c>
+      <c r="I4" s="31">
+        <v>72092646</v>
+      </c>
+      <c r="J4" s="31">
+        <v>72093143</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>3067</v>
+      </c>
+      <c r="L4" s="30">
+        <v>6662</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>3075</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>3069</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>3070</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>3071</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>3072</v>
+      </c>
+      <c r="V4" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>3073</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>3074</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>16458883</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C5" s="34">
+        <v>17</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E5" s="34">
+        <v>70089284</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="31">
+        <v>17</v>
+      </c>
+      <c r="I5" s="31">
+        <v>72092646</v>
+      </c>
+      <c r="J5" s="31">
+        <v>72093143</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>3067</v>
+      </c>
+      <c r="L5" s="30">
+        <v>6662</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>1677</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>3069</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>3070</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>3071</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>3072</v>
+      </c>
+      <c r="V5" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>3073</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>3074</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>16458883</v>
+      </c>
+      <c r="AA5" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C6" s="34">
+        <v>17</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E6" s="34">
+        <v>70089284</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="31">
+        <v>17</v>
+      </c>
+      <c r="I6" s="31">
+        <v>72092646</v>
+      </c>
+      <c r="J6" s="31">
+        <v>72093143</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>3067</v>
+      </c>
+      <c r="L6" s="30">
+        <v>6662</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>3076</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>3069</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>3070</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>3071</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>3072</v>
+      </c>
+      <c r="V6" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W6" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>3073</v>
+      </c>
+      <c r="Y6" s="30" t="s">
+        <v>3074</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>16458883</v>
+      </c>
+      <c r="AA6" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C7" s="34">
+        <v>17</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E7" s="34">
+        <v>70089284</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="31">
+        <v>17</v>
+      </c>
+      <c r="I7" s="31">
+        <v>72092646</v>
+      </c>
+      <c r="J7" s="31">
+        <v>72093143</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>3067</v>
+      </c>
+      <c r="L7" s="30">
+        <v>6662</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>3077</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>3069</v>
+      </c>
+      <c r="S7" s="40" t="s">
+        <v>3070</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>3071</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>3072</v>
+      </c>
+      <c r="V7" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="X7" s="33" t="s">
+        <v>3073</v>
+      </c>
+      <c r="Y7" s="30" t="s">
+        <v>3074</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>16458883</v>
+      </c>
+      <c r="AA7" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C8" s="34">
+        <v>17</v>
+      </c>
+      <c r="D8" s="34">
+        <v>69866598</v>
+      </c>
+      <c r="E8" s="34">
+        <v>69866879</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="31">
+        <v>17</v>
+      </c>
+      <c r="I8" s="31">
+        <v>71870457</v>
+      </c>
+      <c r="J8" s="31">
+        <v>71870738</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>3067</v>
+      </c>
+      <c r="L8" s="30">
+        <v>6662</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>3079</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>3080</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>3081</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>3071</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>3072</v>
+      </c>
+      <c r="V8" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W8" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="X8" s="33" t="s">
+        <v>3073</v>
+      </c>
+      <c r="Y8" s="30" t="s">
+        <v>3074</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>16458883</v>
+      </c>
+      <c r="AA8" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C9" s="34">
+        <v>17</v>
+      </c>
+      <c r="D9" s="34">
+        <v>69866598</v>
+      </c>
+      <c r="E9" s="34">
+        <v>69866879</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="31">
+        <v>17</v>
+      </c>
+      <c r="I9" s="31">
+        <v>71870457</v>
+      </c>
+      <c r="J9" s="31">
+        <v>71870738</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>3067</v>
+      </c>
+      <c r="L9" s="30">
+        <v>6662</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>3082</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>3080</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>3081</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>3071</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>3072</v>
+      </c>
+      <c r="V9" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W9" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="X9" s="33" t="s">
+        <v>3073</v>
+      </c>
+      <c r="Y9" s="30" t="s">
+        <v>3074</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>16458883</v>
+      </c>
+      <c r="AA9" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C10" s="34">
+        <v>17</v>
+      </c>
+      <c r="D10" s="34">
+        <v>70215437</v>
+      </c>
+      <c r="E10" s="34">
+        <v>70216558</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="31">
+        <v>17</v>
+      </c>
+      <c r="I10" s="31">
+        <v>72219296</v>
+      </c>
+      <c r="J10" s="31">
+        <v>72220417</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>3067</v>
+      </c>
+      <c r="L10" s="30">
+        <v>6662</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>3084</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>3085</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>2296</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>3071</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>3072</v>
+      </c>
+      <c r="V10" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W10" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>3073</v>
+      </c>
+      <c r="Y10" s="30" t="s">
+        <v>3074</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>16458883</v>
+      </c>
+      <c r="AA10" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C11" s="34">
+        <v>17</v>
+      </c>
+      <c r="D11" s="34">
+        <v>70215437</v>
+      </c>
+      <c r="E11" s="34">
+        <v>70216558</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="31">
+        <v>17</v>
+      </c>
+      <c r="I11" s="31">
+        <v>72219296</v>
+      </c>
+      <c r="J11" s="31">
+        <v>72220417</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>3067</v>
+      </c>
+      <c r="L11" s="30">
+        <v>6662</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>3085</v>
+      </c>
+      <c r="S11" s="40" t="s">
+        <v>2296</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>3071</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>3072</v>
+      </c>
+      <c r="V11" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W11" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>3073</v>
+      </c>
+      <c r="Y11" s="30" t="s">
+        <v>3074</v>
+      </c>
+      <c r="Z11" s="30">
+        <v>16458883</v>
+      </c>
+      <c r="AA11" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" s="34">
+        <v>834744</v>
+      </c>
+      <c r="E12" s="34">
+        <v>835567</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="I12" s="31">
+        <v>874009</v>
+      </c>
+      <c r="J12" s="31">
+        <v>874832</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>3087</v>
+      </c>
+      <c r="L12" s="30">
+        <v>6473</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>709</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>709</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>3088</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>3089</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>3090</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>3091</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>3092</v>
+      </c>
+      <c r="V12" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W12" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" s="33" t="s">
+        <v>3093</v>
+      </c>
+      <c r="Y12" s="30" t="s">
+        <v>3094</v>
+      </c>
+      <c r="Z12" s="30">
+        <v>16385461</v>
+      </c>
+      <c r="AA12" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C13" s="31">
+        <v>5</v>
+      </c>
+      <c r="D13" s="34">
+        <v>26874573</v>
+      </c>
+      <c r="E13" s="34">
+        <v>26875234</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="31">
+        <v>7</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="L13" s="30">
+        <v>6469</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>2881</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>3097</v>
+      </c>
+      <c r="S13" s="31">
+        <v>3</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>3098</v>
+      </c>
+      <c r="U13" s="30" t="s">
+        <v>3099</v>
+      </c>
+      <c r="V13" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W13" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X13" s="30" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Y13" s="30" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Z13" s="30">
+        <v>16307497</v>
+      </c>
+      <c r="AA13" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC13" s="30" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C14" s="31">
+        <v>5</v>
+      </c>
+      <c r="D14" s="34">
+        <v>26874573</v>
+      </c>
+      <c r="E14" s="34">
+        <v>26875234</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="31">
+        <v>7</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="L14" s="30">
+        <v>6469</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>3103</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>3097</v>
+      </c>
+      <c r="S14" s="31">
+        <v>3</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>3098</v>
+      </c>
+      <c r="U14" s="30" t="s">
+        <v>3099</v>
+      </c>
+      <c r="V14" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W14" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X14" s="30" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Y14" s="30" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Z14" s="30">
+        <v>16307497</v>
+      </c>
+      <c r="AA14" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC14" s="30" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C15" s="31">
+        <v>5</v>
+      </c>
+      <c r="D15" s="31">
+        <v>26857296</v>
+      </c>
+      <c r="E15" s="31">
+        <v>26858042</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="31">
+        <v>7</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="L15" s="30">
+        <v>6469</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>2881</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>3097</v>
+      </c>
+      <c r="S15" s="31">
+        <v>3</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>3098</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>3099</v>
+      </c>
+      <c r="V15" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W15" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X15" s="30" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Y15" s="30" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Z15" s="30">
+        <v>16307497</v>
+      </c>
+      <c r="AA15" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC15" s="30" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A16" s="30">
+        <v>15</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C16" s="31">
+        <v>5</v>
+      </c>
+      <c r="D16" s="31">
+        <v>26857296</v>
+      </c>
+      <c r="E16" s="31">
+        <v>26858042</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="31">
+        <v>7</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="L16" s="30">
+        <v>6469</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>3103</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R16" s="30" t="s">
+        <v>3097</v>
+      </c>
+      <c r="S16" s="31">
+        <v>3</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>3098</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>3099</v>
+      </c>
+      <c r="V16" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W16" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X16" s="30" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Y16" s="30" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Z16" s="30">
+        <v>16307497</v>
+      </c>
+      <c r="AA16" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC16" s="30" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C17" s="31">
+        <v>5</v>
+      </c>
+      <c r="D17" s="31">
+        <v>26858062</v>
+      </c>
+      <c r="E17" s="31">
+        <v>26858595</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="31">
+        <v>7</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="L17" s="30">
+        <v>6469</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>3097</v>
+      </c>
+      <c r="S17" s="31">
+        <v>3</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>3098</v>
+      </c>
+      <c r="U17" s="30" t="s">
+        <v>3099</v>
+      </c>
+      <c r="V17" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W17" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X17" s="30" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Y17" s="30" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Z17" s="30">
+        <v>16307497</v>
+      </c>
+      <c r="AA17" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC17" s="30" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C18" s="31">
+        <v>5</v>
+      </c>
+      <c r="D18" s="31">
+        <v>26858062</v>
+      </c>
+      <c r="E18" s="31">
+        <v>26858595</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="31">
+        <v>7</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="L18" s="30">
+        <v>6469</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>854</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" s="30" t="s">
+        <v>3097</v>
+      </c>
+      <c r="S18" s="31">
+        <v>3</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>3098</v>
+      </c>
+      <c r="U18" s="30" t="s">
+        <v>3099</v>
+      </c>
+      <c r="V18" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W18" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X18" s="30" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Y18" s="30" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Z18" s="30">
+        <v>16307497</v>
+      </c>
+      <c r="AA18" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC18" s="30" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C19" s="31">
+        <v>5</v>
+      </c>
+      <c r="D19" s="31">
+        <v>27274453</v>
+      </c>
+      <c r="E19" s="31">
+        <v>27275587</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="31">
+        <v>7</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="L19" s="30">
+        <v>6469</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>854</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R19" s="30" t="s">
+        <v>3107</v>
+      </c>
+      <c r="S19" s="44" t="s">
+        <v>3108</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>3098</v>
+      </c>
+      <c r="U19" s="30" t="s">
+        <v>3099</v>
+      </c>
+      <c r="V19" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W19" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X19" s="30" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Y19" s="30" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Z19" s="30">
+        <v>16307497</v>
+      </c>
+      <c r="AA19" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC19" s="30" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A20" s="30">
+        <v>19</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C20" s="31">
+        <v>5</v>
+      </c>
+      <c r="D20" s="31">
+        <v>27291667</v>
+      </c>
+      <c r="E20" s="31">
+        <v>27292041</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="31">
+        <v>7</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="L20" s="30">
+        <v>6469</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>3084</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>3107</v>
+      </c>
+      <c r="S20" s="44" t="s">
+        <v>3108</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>3098</v>
+      </c>
+      <c r="U20" s="30" t="s">
+        <v>3099</v>
+      </c>
+      <c r="V20" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W20" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X20" s="30" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Y20" s="30" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Z20" s="30">
+        <v>16307497</v>
+      </c>
+      <c r="AA20" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC20" s="30" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A21" s="30">
+        <v>20</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C21" s="31">
+        <v>5</v>
+      </c>
+      <c r="D21" s="31">
+        <v>27184220</v>
+      </c>
+      <c r="E21" s="31">
+        <v>27185333</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="31">
+        <v>7</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="L21" s="30">
+        <v>6469</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>854</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>3107</v>
+      </c>
+      <c r="S21" s="44" t="s">
+        <v>3108</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>3098</v>
+      </c>
+      <c r="U21" s="30" t="s">
+        <v>3099</v>
+      </c>
+      <c r="V21" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X21" s="30" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Y21" s="30" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Z21" s="30">
+        <v>16307497</v>
+      </c>
+      <c r="AA21" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC21" s="30" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A22" s="30">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C22" s="31">
+        <v>5</v>
+      </c>
+      <c r="D22" s="31">
+        <v>27184220</v>
+      </c>
+      <c r="E22" s="31">
+        <v>27185333</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="31">
+        <v>7</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="L22" s="30">
+        <v>6469</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>3084</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>3107</v>
+      </c>
+      <c r="S22" s="44" t="s">
+        <v>3108</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>3098</v>
+      </c>
+      <c r="U22" s="30" t="s">
+        <v>3099</v>
+      </c>
+      <c r="V22" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W22" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X22" s="30" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Y22" s="30" t="s">
+        <v>3101</v>
+      </c>
+      <c r="Z22" s="30">
+        <v>16307497</v>
+      </c>
+      <c r="AA22" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC22" s="30" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A23" s="30">
+        <v>22</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C23" s="31">
+        <v>11</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>3043</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="31">
+        <v>5</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="30" t="s">
+        <v>3044</v>
+      </c>
+      <c r="L23" s="30">
+        <v>3565</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>3112</v>
+      </c>
+      <c r="S23" s="40" t="s">
+        <v>2546</v>
+      </c>
+      <c r="T23" s="30" t="s">
+        <v>3113</v>
+      </c>
+      <c r="U23" s="30" t="s">
+        <v>3114</v>
+      </c>
+      <c r="V23" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W23" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="X23" s="33" t="s">
+        <v>3115</v>
+      </c>
+      <c r="Y23" s="30" t="s">
+        <v>3116</v>
+      </c>
+      <c r="Z23" s="30">
+        <v>16782026</v>
+      </c>
+      <c r="AA23" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC23" s="30" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A24" s="30">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C24" s="31">
+        <v>11</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>3043</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="31">
+        <v>5</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="30" t="s">
+        <v>3044</v>
+      </c>
+      <c r="L24" s="30">
+        <v>3565</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" s="43" t="s">
+        <v>3119</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>3112</v>
+      </c>
+      <c r="S24" s="40" t="s">
+        <v>2546</v>
+      </c>
+      <c r="T24" s="30" t="s">
+        <v>3113</v>
+      </c>
+      <c r="U24" s="30" t="s">
+        <v>3114</v>
+      </c>
+      <c r="V24" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W24" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="X24" s="33" t="s">
+        <v>3115</v>
+      </c>
+      <c r="Y24" s="30" t="s">
+        <v>3116</v>
+      </c>
+      <c r="Z24" s="30">
+        <v>16782026</v>
+      </c>
+      <c r="AA24" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC24" s="30" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A25" s="30">
+        <v>24</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C25" s="31">
+        <v>12</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="31">
+        <v>12</v>
+      </c>
+      <c r="I25" s="31">
+        <v>68175493</v>
+      </c>
+      <c r="J25" s="31">
+        <v>68175880</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>3123</v>
+      </c>
+      <c r="L25" s="30">
+        <v>3458</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>3124</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="30" t="s">
+        <v>3125</v>
+      </c>
+      <c r="R25" s="30" t="s">
+        <v>3126</v>
+      </c>
+      <c r="S25" s="40" t="s">
+        <v>3127</v>
+      </c>
+      <c r="T25" s="30" t="s">
+        <v>3128</v>
+      </c>
+      <c r="U25" s="30" t="s">
+        <v>3129</v>
+      </c>
+      <c r="V25" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W25" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="X25" s="33" t="s">
+        <v>3130</v>
+      </c>
+      <c r="Y25" s="30" t="s">
+        <v>3131</v>
+      </c>
+      <c r="Z25" s="30">
+        <v>17070076</v>
+      </c>
+      <c r="AA25" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC25" s="39"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A26" s="30">
+        <v>25</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C26" s="31">
+        <v>12</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="31">
+        <v>12</v>
+      </c>
+      <c r="I26" s="31">
+        <v>68175493</v>
+      </c>
+      <c r="J26" s="31">
+        <v>68175880</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>3123</v>
+      </c>
+      <c r="L26" s="30">
+        <v>3458</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>2898</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="30" t="s">
+        <v>3125</v>
+      </c>
+      <c r="R26" s="30" t="s">
+        <v>3126</v>
+      </c>
+      <c r="S26" s="40" t="s">
+        <v>3127</v>
+      </c>
+      <c r="T26" s="30" t="s">
+        <v>3128</v>
+      </c>
+      <c r="U26" s="30" t="s">
+        <v>3129</v>
+      </c>
+      <c r="V26" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W26" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="X26" s="33" t="s">
+        <v>3130</v>
+      </c>
+      <c r="Y26" s="30" t="s">
+        <v>3131</v>
+      </c>
+      <c r="Z26" s="30">
+        <v>17070076</v>
+      </c>
+      <c r="AA26" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC26" s="39"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A27" s="30">
+        <v>26</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C27" s="31">
+        <v>4</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E27" s="31">
+        <v>80821307</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="31">
+        <v>9</v>
+      </c>
+      <c r="I27" s="31">
+        <v>12680276</v>
+      </c>
+      <c r="J27" s="31">
+        <v>12681762</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>3134</v>
+      </c>
+      <c r="L27" s="30">
+        <v>7306</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>3135</v>
+      </c>
+      <c r="P27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R27" s="30" t="s">
+        <v>3136</v>
+      </c>
+      <c r="S27" s="31">
+        <v>5</v>
+      </c>
+      <c r="T27" s="30" t="s">
+        <v>3137</v>
+      </c>
+      <c r="U27" s="30" t="s">
+        <v>3138</v>
+      </c>
+      <c r="V27" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W27" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="X27" s="33" t="s">
+        <v>3139</v>
+      </c>
+      <c r="Y27" s="30" t="s">
+        <v>3140</v>
+      </c>
+      <c r="Z27" s="30">
+        <v>16934245</v>
+      </c>
+      <c r="AA27" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC27" s="39"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A28" s="30">
+        <v>27</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C28" s="31">
+        <v>17</v>
+      </c>
+      <c r="D28" s="31">
+        <v>28420063</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>3142</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="31">
+        <v>6</v>
+      </c>
+      <c r="I28" s="31">
+        <v>35601830</v>
+      </c>
+      <c r="J28" s="31">
+        <v>35602586</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>3143</v>
+      </c>
+      <c r="L28" s="30">
+        <v>2289</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>3144</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>3144</v>
+      </c>
+      <c r="O28" s="37" t="s">
+        <v>3145</v>
+      </c>
+      <c r="P28" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R28" s="30" t="s">
+        <v>3146</v>
+      </c>
+      <c r="S28" s="45" t="s">
+        <v>2971</v>
+      </c>
+      <c r="T28" s="30" t="s">
+        <v>3147</v>
+      </c>
+      <c r="U28" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="V28" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W28" s="30" t="s">
+        <v>2968</v>
+      </c>
+      <c r="X28" s="33" t="s">
+        <v>3149</v>
+      </c>
+      <c r="Y28" s="30" t="s">
+        <v>3150</v>
+      </c>
+      <c r="Z28" s="30">
+        <v>16210365</v>
+      </c>
+      <c r="AA28" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A29" s="30">
+        <v>28</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C29" s="31">
+        <v>17</v>
+      </c>
+      <c r="D29" s="31">
+        <v>31668051</v>
+      </c>
+      <c r="E29" s="31">
+        <v>31671885</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="31">
+        <v>21</v>
+      </c>
+      <c r="I29" s="31">
+        <v>41549568</v>
+      </c>
+      <c r="J29" s="31">
+        <v>41551147</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>3152</v>
+      </c>
+      <c r="L29" s="30">
+        <v>1409</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="O29" s="30" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P29" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="30" t="s">
+        <v>3006</v>
+      </c>
+      <c r="R29" s="30" t="s">
+        <v>3154</v>
+      </c>
+      <c r="S29" s="34">
+        <v>2</v>
+      </c>
+      <c r="T29" s="30" t="s">
+        <v>3155</v>
+      </c>
+      <c r="U29" s="30" t="s">
+        <v>3156</v>
+      </c>
+      <c r="V29" s="30">
+        <v>2006</v>
+      </c>
+      <c r="W29" s="30" t="s">
+        <v>3157</v>
+      </c>
+      <c r="X29" s="33" t="s">
+        <v>3158</v>
+      </c>
+      <c r="Y29" s="30" t="s">
+        <v>3159</v>
+      </c>
+      <c r="Z29" s="30">
+        <v>16675956</v>
+      </c>
+      <c r="AA29" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="46"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="46"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="46"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B39" s="46"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="46"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" s="46"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="46"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB42ABA6-2F0B-4E93-BD38-F39B643AB256}">
+  <dimension ref="A1:AC23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.4375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="30" style="30" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="30" customWidth="1"/>
+    <col min="5" max="5" width="12.0625" style="30" customWidth="1"/>
+    <col min="6" max="7" width="15" style="30" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="22.875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="30" customWidth="1"/>
+    <col min="11" max="24" width="8.3125" style="30"/>
+    <col min="25" max="25" width="28.6875" style="30" customWidth="1"/>
+    <col min="26" max="26" width="9.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.3125" style="30" customWidth="1"/>
+    <col min="29" max="16384" width="8.3125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="51" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C2" s="31">
+        <v>17</v>
+      </c>
+      <c r="D2" s="31">
+        <v>43696552</v>
+      </c>
+      <c r="E2" s="31">
+        <v>43696804</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>2907</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>2907</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>2907</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>3161</v>
+      </c>
+      <c r="L2" s="30">
+        <v>50964</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>3162</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>2936</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="43" t="s">
+        <v>3163</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>2330</v>
+      </c>
+      <c r="T2" s="43" t="s">
+        <v>3164</v>
+      </c>
+      <c r="U2" s="43" t="s">
+        <v>3165</v>
+      </c>
+      <c r="V2" s="30">
+        <v>2005</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>3166</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>3167</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>15965026</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC2" s="39"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C3" s="31">
+        <v>14</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3170</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="31">
+        <v>8</v>
+      </c>
+      <c r="I3" s="31">
+        <v>11659021</v>
+      </c>
+      <c r="J3" s="31">
+        <v>11662065</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>2324</v>
+      </c>
+      <c r="L3" s="30">
+        <v>2626</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>3171</v>
+      </c>
+      <c r="O3" s="37"/>
+      <c r="P3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>3172</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>3173</v>
+      </c>
+      <c r="S3" s="31">
+        <v>4</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>3174</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="V3" s="30">
+        <v>2005</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>3176</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>3177</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>15987774</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC3" s="30" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C4" s="31">
+        <v>2</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>3180</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>3181</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="31">
+        <v>11</v>
+      </c>
+      <c r="I4" s="31">
+        <v>36601182</v>
+      </c>
+      <c r="J4" s="31">
+        <v>36601356</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>3182</v>
+      </c>
+      <c r="L4" s="30">
+        <v>5897</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>3183</v>
+      </c>
+      <c r="S4" s="31">
+        <v>2</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>3184</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>3185</v>
+      </c>
+      <c r="V4" s="30">
+        <v>2005</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>3186</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>3187</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>3188</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>15657951</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C5" s="31">
+        <v>17</v>
+      </c>
+      <c r="D5" s="31">
+        <v>26852106</v>
+      </c>
+      <c r="E5" s="31">
+        <v>26852381</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="31">
+        <v>5</v>
+      </c>
+      <c r="I5" s="31">
+        <v>173246757</v>
+      </c>
+      <c r="J5" s="31">
+        <v>173247068</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>3190</v>
+      </c>
+      <c r="L5" s="30">
+        <v>1482</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>1978</v>
+      </c>
+      <c r="O5" s="37"/>
+      <c r="P5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>3191</v>
+      </c>
+      <c r="S5" s="31">
+        <v>3</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>3192</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>3193</v>
+      </c>
+      <c r="V5" s="30">
+        <v>2005</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>3022</v>
+      </c>
+      <c r="X5" s="30" t="s">
+        <v>3194</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>3195</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>16150722</v>
+      </c>
+      <c r="AA5" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C6" s="31">
+        <v>17</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>3197</v>
+      </c>
+      <c r="E6" s="31">
+        <v>26856271</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="31">
+        <v>5</v>
+      </c>
+      <c r="I6" s="31">
+        <v>173250279</v>
+      </c>
+      <c r="J6" s="31">
+        <v>173250522</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>3190</v>
+      </c>
+      <c r="L6" s="30">
+        <v>1482</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>3198</v>
+      </c>
+      <c r="O6" s="37"/>
+      <c r="P6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>3191</v>
+      </c>
+      <c r="S6" s="31">
+        <v>3</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>3192</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>3193</v>
+      </c>
+      <c r="V6" s="30">
+        <v>2005</v>
+      </c>
+      <c r="W6" s="30" t="s">
+        <v>3022</v>
+      </c>
+      <c r="X6" s="30" t="s">
+        <v>3194</v>
+      </c>
+      <c r="Y6" s="30" t="s">
+        <v>3195</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>16150722</v>
+      </c>
+      <c r="AA6" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E7" s="31">
+        <v>26861318</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="31">
+        <v>5</v>
+      </c>
+      <c r="I7" s="31">
+        <v>173256763</v>
+      </c>
+      <c r="J7" s="31">
+        <v>173256993</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>3190</v>
+      </c>
+      <c r="L7" s="30">
+        <v>1482</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>3201</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>3191</v>
+      </c>
+      <c r="S7" s="31">
+        <v>3</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>3192</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>3193</v>
+      </c>
+      <c r="V7" s="30">
+        <v>2005</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>3022</v>
+      </c>
+      <c r="X7" s="30" t="s">
+        <v>3194</v>
+      </c>
+      <c r="Y7" s="30" t="s">
+        <v>3195</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>16150722</v>
+      </c>
+      <c r="AA7" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C8" s="31">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3204</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="31">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31">
+        <v>206793660</v>
+      </c>
+      <c r="J8" s="31">
+        <v>206794689</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>3205</v>
+      </c>
+      <c r="L8" s="30">
+        <v>3586</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>2947</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>3206</v>
+      </c>
+      <c r="S8" s="31">
+        <v>5</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>3207</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>3208</v>
+      </c>
+      <c r="V8" s="30">
+        <v>2005</v>
+      </c>
+      <c r="W8" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="X8" s="30" t="s">
+        <v>3209</v>
+      </c>
+      <c r="Y8" s="46" t="s">
+        <v>3210</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>16301651</v>
+      </c>
+      <c r="AA8" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C9" s="31">
+        <v>1</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>3212</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="31">
+        <v>1</v>
+      </c>
+      <c r="I9" s="31">
+        <v>206785288</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>3214</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>3205</v>
+      </c>
+      <c r="L9" s="30">
+        <v>3586</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>2947</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>3206</v>
+      </c>
+      <c r="S9" s="31">
+        <v>5</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>3207</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>3208</v>
+      </c>
+      <c r="V9" s="30">
+        <v>2005</v>
+      </c>
+      <c r="W9" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="X9" s="30" t="s">
+        <v>3209</v>
+      </c>
+      <c r="Y9" s="48" t="s">
+        <v>3210</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>16301651</v>
+      </c>
+      <c r="AA9" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>3212</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="31">
+        <v>1</v>
+      </c>
+      <c r="I10" s="31">
+        <v>206785288</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>3214</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>3205</v>
+      </c>
+      <c r="L10" s="30">
+        <v>3586</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>2942</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>3206</v>
+      </c>
+      <c r="S10" s="31">
+        <v>5</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>3207</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>3208</v>
+      </c>
+      <c r="V10" s="30">
+        <v>2005</v>
+      </c>
+      <c r="W10" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="X10" s="30" t="s">
+        <v>3209</v>
+      </c>
+      <c r="Y10" s="48" t="s">
+        <v>3210</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>16301651</v>
+      </c>
+      <c r="AA10" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>3215</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34">
+        <v>131003839</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>3216</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="31">
+        <v>1</v>
+      </c>
+      <c r="I11" s="34">
+        <v>206766895</v>
+      </c>
+      <c r="J11" s="34">
+        <v>206790473</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>3205</v>
+      </c>
+      <c r="L11" s="30">
+        <v>3586</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>2947</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>3206</v>
+      </c>
+      <c r="S11" s="31">
+        <v>5</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>3207</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>3208</v>
+      </c>
+      <c r="V11" s="30">
+        <v>2005</v>
+      </c>
+      <c r="W11" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="X11" s="30" t="s">
+        <v>3209</v>
+      </c>
+      <c r="Y11" s="48" t="s">
+        <v>3210</v>
+      </c>
+      <c r="Z11" s="30">
+        <v>16301651</v>
+      </c>
+      <c r="AA11" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>3215</v>
+      </c>
+      <c r="C12" s="31">
+        <v>1</v>
+      </c>
+      <c r="D12" s="34">
+        <v>131003839</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>3216</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="31">
+        <v>1</v>
+      </c>
+      <c r="I12" s="34">
+        <v>206766895</v>
+      </c>
+      <c r="J12" s="34">
+        <v>206790473</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>3205</v>
+      </c>
+      <c r="L12" s="30">
+        <v>3586</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>2942</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>3217</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>3206</v>
+      </c>
+      <c r="S12" s="31">
+        <v>5</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>3207</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>3208</v>
+      </c>
+      <c r="V12" s="30">
+        <v>2005</v>
+      </c>
+      <c r="W12" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="X12" s="30" t="s">
+        <v>3209</v>
+      </c>
+      <c r="Y12" s="48" t="s">
+        <v>3210</v>
+      </c>
+      <c r="Z12" s="30">
+        <v>16301651</v>
+      </c>
+      <c r="AA12" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C13" s="31">
+        <v>2</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>3219</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>3220</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="31">
+        <v>11</v>
+      </c>
+      <c r="I13" s="31">
+        <v>47395486</v>
+      </c>
+      <c r="J13" s="31">
+        <v>47395789</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>3221</v>
+      </c>
+      <c r="L13" s="30">
+        <v>6688</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>709</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>3222</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>3223</v>
+      </c>
+      <c r="S13" s="40" t="s">
+        <v>2330</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>3224</v>
+      </c>
+      <c r="U13" s="30" t="s">
+        <v>3225</v>
+      </c>
+      <c r="V13" s="30">
+        <v>2005</v>
+      </c>
+      <c r="W13" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>3226</v>
+      </c>
+      <c r="Y13" s="30" t="s">
+        <v>3227</v>
+      </c>
+      <c r="Z13" s="30">
+        <v>15767686</v>
+      </c>
+      <c r="AA13" s="30" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AC13" s="39"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C14" s="31">
+        <v>7</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>3230</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="31">
+        <v>7</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>3231</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>3232</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>3233</v>
+      </c>
+      <c r="L14" s="30">
+        <v>1576</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>3234</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>2861</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>3235</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>2981</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>3236</v>
+      </c>
+      <c r="U14" s="30" t="s">
+        <v>3237</v>
+      </c>
+      <c r="V14" s="30">
+        <v>20005</v>
+      </c>
+      <c r="W14" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="X14" s="30" t="s">
+        <v>3238</v>
+      </c>
+      <c r="Y14" s="30" t="s">
+        <v>3239</v>
+      </c>
+      <c r="Z14" s="30">
+        <v>15778453</v>
+      </c>
+      <c r="AA14" s="30" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="S15" s="31"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="AC17" s="39"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A22" s="49"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A23" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34167,7 +43154,7 @@
       <c r="AC167" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -42386,7 +51373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785F9B4A-66B6-1249-8A53-E74DCB3CE507}">
   <dimension ref="A1:AC168"/>
   <sheetViews>
-    <sheetView topLeftCell="R120" zoomScale="118" workbookViewId="0">
+    <sheetView topLeftCell="R166" zoomScale="118" workbookViewId="0">
       <selection activeCell="Y125" sqref="Y125"/>
     </sheetView>
   </sheetViews>
@@ -56857,20 +65844,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87319976-128C-AE41-8C6B-399ECE682A40}">
   <dimension ref="A1:AC383"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A245"/>
+    <sheetView topLeftCell="A173" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L185" sqref="L185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
     <col min="9" max="10" width="10.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
@@ -82204,7 +91191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063B687C-59B8-46A1-87A9-678BEB24A393}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
